--- a/tables.xlsx
+++ b/tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27900" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27920" windowHeight="17540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="constant" sheetId="2" r:id="rId1"/>
@@ -222,7 +222,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="89">
   <si>
     <t>name</t>
   </si>
@@ -271,30 +271,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>unlockCoinCost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1;200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>金币投入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -311,6 +291,186 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>果盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>果篮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/fruit/nm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/fruit/gp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/fruit/gl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/fruit/st</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>winMuti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果中奖率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bumperWin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰收中奖率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flyCoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weightsum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bumperTrigger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰收触发率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bumperRound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰收轮次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigWinRound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大奖轮次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigWinFruit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大奖水果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4;5;6;7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigWinReday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大奖准备次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isBigWin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fruitWin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slotFruits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮盘水果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;2;3;4;5;6;7;8;9|1;3;5;7;9;2;4;6;8|1;4;7;2;5;8;3;6;9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coinCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coinMutiple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;2;3;4;5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalExp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/fruit/cz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/fruit/xg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/fruit/xj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香蕉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柠檬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樱桃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/fruit/yt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>西瓜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -319,71 +479,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>柠檬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香蕉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>樱桃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>橙子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>果盘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>果篮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui/fruit/xg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui/fruit/lm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ui/fruit/nm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui/fruit/cz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui/fruit/xj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui/fruit/yt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui/fruit/gp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui/fruit/gl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui/fruit/st</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>winMuti</t>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -391,119 +495,86 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>水果中奖率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bumperWin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丰收中奖率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flyCoin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weightsum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bumperTrigger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丰收触发率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;100|10;200|20;300|30;400|40;500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bumperRound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丰收轮次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bigWinRound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大奖轮次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bigWinFruit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大奖水果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4;5;6;7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bigWinReday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大奖准备次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isBigWin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fruitWin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slotFruits</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轮盘水果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;2;3;4;5;6;7;8;9|1;3;5;7;9;2;4;6;8|1;4;7;2;5;8;3;6;9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>coinCost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>coinMutiple</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;2;3;4;5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>totalExp</t>
+    <t>unlcokTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;100|5;200|10;300|15;400|20;500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlcokCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包工头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施肥工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种植工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采摘工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后勤经理</t>
+  </si>
+  <si>
+    <t>工长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠道经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大客户经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副总经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董事长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果大王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看守</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副董事长</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -578,8 +649,48 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1321">
+  <cellStyleXfs count="1361">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1907,7 +2018,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1321">
+  <cellStyles count="1361">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2568,6 +2679,26 @@
     <cellStyle name="超链接" xfId="1315" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1317" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1319" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1321" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1323" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1325" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1327" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1329" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1331" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1333" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1335" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1337" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1339" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1341" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1343" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1345" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1347" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1349" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1351" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1353" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1355" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1357" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1359" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -3228,6 +3359,26 @@
     <cellStyle name="访问过的超链接" xfId="1316" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1318" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1320" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1322" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1324" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1326" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1328" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1330" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1332" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1334" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1336" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1338" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1340" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1342" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1344" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1346" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1348" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1350" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1352" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1354" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1356" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1358" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1360" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3528,7 +3679,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection sqref="A1:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3572,13 +3723,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3586,13 +3737,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3600,10 +3751,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D5">
         <v>0.25</v>
@@ -3614,10 +3765,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D6">
         <v>0.5</v>
@@ -3628,10 +3779,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D7">
         <v>0.05</v>
@@ -3642,10 +3793,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -3656,10 +3807,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="D9">
         <v>7</v>
@@ -3670,13 +3821,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3684,10 +3835,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -3698,13 +3849,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -3722,18 +3873,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E52"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="4" max="4" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3741,16 +3894,25 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" t="s">
         <v>70</v>
       </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="H1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3764,10 +3926,19 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>65</v>
+      </c>
+      <c r="F2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3780,11 +3951,20 @@
       <c r="D3">
         <v>1000</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3798,11 +3978,20 @@
         <f>D3+C4</f>
         <v>2000</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>120</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3816,11 +4005,20 @@
         <f>D4+C5</f>
         <v>3500</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="E5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>140</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3834,11 +4032,20 @@
         <f t="shared" ref="D6:D52" si="0">D5+C6</f>
         <v>5500</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>160</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3852,11 +4059,20 @@
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>180</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3870,11 +4086,20 @@
         <f t="shared" si="0"/>
         <v>11000</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>200</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3888,11 +4113,20 @@
         <f t="shared" si="0"/>
         <v>14500</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>220</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3906,11 +4140,20 @@
         <f t="shared" si="0"/>
         <v>18500</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="E10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>240</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3924,11 +4167,20 @@
         <f t="shared" si="0"/>
         <v>23000</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>260</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3943,10 +4195,19 @@
         <v>28000</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>74</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>280</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3960,11 +4221,20 @@
         <f t="shared" si="0"/>
         <v>33500</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="E13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>300</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3978,11 +4248,20 @@
         <f t="shared" si="0"/>
         <v>39500</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="E14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>320</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3996,11 +4275,20 @@
         <f t="shared" si="0"/>
         <v>46000</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="E15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>340</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4014,11 +4302,20 @@
         <f t="shared" si="0"/>
         <v>53000</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="E16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>360</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4032,11 +4329,20 @@
         <f t="shared" si="0"/>
         <v>60500</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="E17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>380</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>16</v>
       </c>
@@ -4050,11 +4356,20 @@
         <f t="shared" si="0"/>
         <v>68500</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="E18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>400</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>17</v>
       </c>
@@ -4068,11 +4383,20 @@
         <f t="shared" si="0"/>
         <v>77000</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="E19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>420</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>18</v>
       </c>
@@ -4086,11 +4410,20 @@
         <f t="shared" si="0"/>
         <v>86000</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="E20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>440</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>19</v>
       </c>
@@ -4104,11 +4437,20 @@
         <f t="shared" si="0"/>
         <v>95500</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="E21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>460</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>20</v>
       </c>
@@ -4123,10 +4465,19 @@
         <v>105500</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>73</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>480</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>21</v>
       </c>
@@ -4140,11 +4491,20 @@
         <f t="shared" si="0"/>
         <v>116000</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="E23" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>500</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>22</v>
       </c>
@@ -4158,11 +4518,20 @@
         <f t="shared" si="0"/>
         <v>127000</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="E24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>500</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>23</v>
       </c>
@@ -4176,11 +4545,20 @@
         <f t="shared" si="0"/>
         <v>138500</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="E25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>500</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>24</v>
       </c>
@@ -4194,11 +4572,20 @@
         <f t="shared" si="0"/>
         <v>150500</v>
       </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="E26" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>500</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>25</v>
       </c>
@@ -4212,11 +4599,20 @@
         <f t="shared" si="0"/>
         <v>163000</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="E27" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>500</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>26</v>
       </c>
@@ -4230,11 +4626,20 @@
         <f t="shared" si="0"/>
         <v>176000</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="E28" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>500</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>27</v>
       </c>
@@ -4248,11 +4653,20 @@
         <f t="shared" si="0"/>
         <v>189500</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="E29" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>500</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>28</v>
       </c>
@@ -4266,11 +4680,20 @@
         <f t="shared" si="0"/>
         <v>203500</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="E30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>500</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>29</v>
       </c>
@@ -4284,11 +4707,20 @@
         <f t="shared" si="0"/>
         <v>218000</v>
       </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="E31" t="s">
+        <v>80</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>500</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>30</v>
       </c>
@@ -4303,10 +4735,19 @@
         <v>233000</v>
       </c>
       <c r="E32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>80</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>500</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>31</v>
       </c>
@@ -4320,11 +4761,20 @@
         <f t="shared" si="0"/>
         <v>248500</v>
       </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="E33" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>500</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>32</v>
       </c>
@@ -4338,11 +4788,20 @@
         <f t="shared" si="0"/>
         <v>264500</v>
       </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="E34" t="s">
+        <v>81</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>500</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>33</v>
       </c>
@@ -4356,11 +4815,20 @@
         <f t="shared" si="0"/>
         <v>281000</v>
       </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="E35" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>500</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>34</v>
       </c>
@@ -4374,11 +4842,20 @@
         <f t="shared" si="0"/>
         <v>298000</v>
       </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="E36" t="s">
+        <v>82</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>500</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>35</v>
       </c>
@@ -4392,11 +4869,20 @@
         <f t="shared" si="0"/>
         <v>315500</v>
       </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="E37" t="s">
+        <v>82</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>500</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>36</v>
       </c>
@@ -4410,11 +4896,20 @@
         <f t="shared" si="0"/>
         <v>333500</v>
       </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="E38" t="s">
+        <v>82</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>500</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>37</v>
       </c>
@@ -4428,11 +4923,20 @@
         <f t="shared" si="0"/>
         <v>352000</v>
       </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="E39" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>500</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>38</v>
       </c>
@@ -4446,11 +4950,20 @@
         <f t="shared" si="0"/>
         <v>371000</v>
       </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="E40" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>500</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>39</v>
       </c>
@@ -4464,11 +4977,20 @@
         <f t="shared" si="0"/>
         <v>390500</v>
       </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="E41" t="s">
+        <v>83</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>500</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>40</v>
       </c>
@@ -4483,10 +5005,19 @@
         <v>410500</v>
       </c>
       <c r="E42" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>84</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>500</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>41</v>
       </c>
@@ -4500,11 +5031,20 @@
         <f t="shared" si="0"/>
         <v>431000</v>
       </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>500</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>42</v>
       </c>
@@ -4518,11 +5058,20 @@
         <f t="shared" si="0"/>
         <v>452000</v>
       </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>500</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>43</v>
       </c>
@@ -4536,11 +5085,20 @@
         <f t="shared" si="0"/>
         <v>473500</v>
       </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>500</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>44</v>
       </c>
@@ -4554,11 +5112,20 @@
         <f t="shared" si="0"/>
         <v>495500</v>
       </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>500</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>45</v>
       </c>
@@ -4572,11 +5139,20 @@
         <f t="shared" si="0"/>
         <v>518000</v>
       </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="E47" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>500</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>46</v>
       </c>
@@ -4590,11 +5166,20 @@
         <f t="shared" si="0"/>
         <v>541000</v>
       </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="E48" t="s">
+        <v>85</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>500</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>47</v>
       </c>
@@ -4608,11 +5193,20 @@
         <f t="shared" si="0"/>
         <v>564500</v>
       </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="E49" t="s">
+        <v>85</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>500</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>48</v>
       </c>
@@ -4626,11 +5220,20 @@
         <f t="shared" si="0"/>
         <v>588500</v>
       </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="E50" t="s">
+        <v>85</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>500</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>49</v>
       </c>
@@ -4644,11 +5247,20 @@
         <f t="shared" si="0"/>
         <v>613000</v>
       </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="E51" t="s">
+        <v>86</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>500</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>50</v>
       </c>
@@ -4662,7 +5274,16 @@
         <f t="shared" si="0"/>
         <v>638000</v>
       </c>
-      <c r="E52">
+      <c r="E52" t="s">
+        <v>86</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>500</v>
+      </c>
+      <c r="H52">
         <v>0</v>
       </c>
     </row>
@@ -4684,7 +5305,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection sqref="A1:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4701,22 +5322,22 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" t="s">
-        <v>62</v>
-      </c>
       <c r="H1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4724,19 +5345,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -4750,10 +5371,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -4777,10 +5398,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -4804,10 +5425,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -4831,10 +5452,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4858,10 +5479,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4885,10 +5506,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -4912,10 +5533,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -4939,10 +5560,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -4966,10 +5587,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D11">
         <v>0</v>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27920" windowHeight="17540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="constant" sheetId="2" r:id="rId1"/>
@@ -222,7 +222,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="90">
   <si>
     <t>name</t>
   </si>
@@ -507,10 +507,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>unlcokCost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>零工</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -575,6 +571,14 @@
   </si>
   <si>
     <t>副董事长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lifeReturn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lifeMax</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -649,8 +653,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1361">
+  <cellStyleXfs count="1369">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2018,7 +2030,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1361">
+  <cellStyles count="1369">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2699,6 +2711,10 @@
     <cellStyle name="超链接" xfId="1355" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1357" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1359" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1361" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1363" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1365" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1367" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -3379,6 +3395,10 @@
     <cellStyle name="访问过的超链接" xfId="1356" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1358" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1360" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1362" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1364" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1366" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1368" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3678,8 +3698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3757,7 +3777,7 @@
         <v>26</v>
       </c>
       <c r="D5">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3873,10 +3893,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3884,9 +3904,11 @@
     <col min="4" max="4" width="16.1640625" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3909,10 +3931,13 @@
         <v>70</v>
       </c>
       <c r="H1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3934,11 +3959,8 @@
       <c r="G2" t="s">
         <v>67</v>
       </c>
-      <c r="H2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3952,7 +3974,7 @@
         <v>1000</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3961,10 +3983,13 @@
         <v>100</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>200</v>
+      </c>
+      <c r="I3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3979,19 +4004,22 @@
         <v>2000</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>220</v>
+      </c>
+      <c r="I4">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4006,19 +4034,22 @@
         <v>3500</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>240</v>
+      </c>
+      <c r="I5">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4033,19 +4064,22 @@
         <v>5500</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>260</v>
+      </c>
+      <c r="I6">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4060,19 +4094,22 @@
         <v>8000</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>280</v>
+      </c>
+      <c r="I7">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4087,19 +4124,22 @@
         <v>11000</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>300</v>
+      </c>
+      <c r="I8">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4114,19 +4154,22 @@
         <v>14500</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>320</v>
+      </c>
+      <c r="I9">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4141,19 +4184,22 @@
         <v>18500</v>
       </c>
       <c r="E10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>340</v>
+      </c>
+      <c r="I10">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4168,19 +4214,22 @@
         <v>23000</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="H11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>360</v>
+      </c>
+      <c r="I11">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4195,19 +4244,22 @@
         <v>28000</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>280</v>
+        <v>190</v>
       </c>
       <c r="H12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>380</v>
+      </c>
+      <c r="I12">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>11</v>
       </c>
@@ -4222,19 +4274,22 @@
         <v>33500</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>400</v>
+      </c>
+      <c r="I13">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4249,19 +4304,22 @@
         <v>39500</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>320</v>
+        <v>210</v>
       </c>
       <c r="H14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>420</v>
+      </c>
+      <c r="I14">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4276,19 +4334,22 @@
         <v>46000</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>340</v>
+        <v>220</v>
       </c>
       <c r="H15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>440</v>
+      </c>
+      <c r="I15">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4303,19 +4364,22 @@
         <v>53000</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>360</v>
+        <v>230</v>
       </c>
       <c r="H16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>460</v>
+      </c>
+      <c r="I16">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4330,19 +4394,22 @@
         <v>60500</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>380</v>
+        <v>240</v>
       </c>
       <c r="H17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>480</v>
+      </c>
+      <c r="I17">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>16</v>
       </c>
@@ -4357,19 +4424,22 @@
         <v>68500</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="H18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>500</v>
+      </c>
+      <c r="I18">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>17</v>
       </c>
@@ -4384,19 +4454,22 @@
         <v>77000</v>
       </c>
       <c r="E19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>420</v>
+        <v>260</v>
       </c>
       <c r="H19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>520</v>
+      </c>
+      <c r="I19">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>18</v>
       </c>
@@ -4411,19 +4484,22 @@
         <v>86000</v>
       </c>
       <c r="E20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>440</v>
+        <v>270</v>
       </c>
       <c r="H20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>540</v>
+      </c>
+      <c r="I20">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>19</v>
       </c>
@@ -4438,19 +4514,22 @@
         <v>95500</v>
       </c>
       <c r="E21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>460</v>
+        <v>280</v>
       </c>
       <c r="H21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>560</v>
+      </c>
+      <c r="I21">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>20</v>
       </c>
@@ -4465,19 +4544,22 @@
         <v>105500</v>
       </c>
       <c r="E22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>480</v>
+        <v>290</v>
       </c>
       <c r="H22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>580</v>
+      </c>
+      <c r="I22">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>21</v>
       </c>
@@ -4492,19 +4574,22 @@
         <v>116000</v>
       </c>
       <c r="E23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="H23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>600</v>
+      </c>
+      <c r="I23">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>22</v>
       </c>
@@ -4519,19 +4604,22 @@
         <v>127000</v>
       </c>
       <c r="E24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>500</v>
+        <v>310</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>620</v>
+      </c>
+      <c r="I24">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>23</v>
       </c>
@@ -4546,19 +4634,22 @@
         <v>138500</v>
       </c>
       <c r="E25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>500</v>
+        <v>320</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>640</v>
+      </c>
+      <c r="I25">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>24</v>
       </c>
@@ -4573,19 +4664,22 @@
         <v>150500</v>
       </c>
       <c r="E26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="H26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>660</v>
+      </c>
+      <c r="I26">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>25</v>
       </c>
@@ -4600,19 +4694,22 @@
         <v>163000</v>
       </c>
       <c r="E27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="H27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>680</v>
+      </c>
+      <c r="I27">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>26</v>
       </c>
@@ -4627,19 +4724,22 @@
         <v>176000</v>
       </c>
       <c r="E28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="H28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>700</v>
+      </c>
+      <c r="I28">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>27</v>
       </c>
@@ -4654,19 +4754,22 @@
         <v>189500</v>
       </c>
       <c r="E29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="H29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>720</v>
+      </c>
+      <c r="I29">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>28</v>
       </c>
@@ -4681,19 +4784,22 @@
         <v>203500</v>
       </c>
       <c r="E30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>500</v>
+        <v>370</v>
       </c>
       <c r="H30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>740</v>
+      </c>
+      <c r="I30">
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>29</v>
       </c>
@@ -4708,19 +4814,22 @@
         <v>218000</v>
       </c>
       <c r="E31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="H31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>760</v>
+      </c>
+      <c r="I31">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>30</v>
       </c>
@@ -4735,19 +4844,22 @@
         <v>233000</v>
       </c>
       <c r="E32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>500</v>
+        <v>390</v>
       </c>
       <c r="H32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>780</v>
+      </c>
+      <c r="I32">
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>31</v>
       </c>
@@ -4762,19 +4874,22 @@
         <v>248500</v>
       </c>
       <c r="E33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>800</v>
+      </c>
+      <c r="I33">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>32</v>
       </c>
@@ -4789,19 +4904,22 @@
         <v>264500</v>
       </c>
       <c r="E34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>500</v>
+        <v>410</v>
       </c>
       <c r="H34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>820</v>
+      </c>
+      <c r="I34">
+        <v>20500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>33</v>
       </c>
@@ -4816,19 +4934,22 @@
         <v>281000</v>
       </c>
       <c r="E35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>500</v>
+        <v>420</v>
       </c>
       <c r="H35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>840</v>
+      </c>
+      <c r="I35">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>34</v>
       </c>
@@ -4843,19 +4964,22 @@
         <v>298000</v>
       </c>
       <c r="E36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>500</v>
+        <v>430</v>
       </c>
       <c r="H36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>860</v>
+      </c>
+      <c r="I36">
+        <v>21500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>35</v>
       </c>
@@ -4870,19 +4994,22 @@
         <v>315500</v>
       </c>
       <c r="E37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="H37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>880</v>
+      </c>
+      <c r="I37">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>36</v>
       </c>
@@ -4897,19 +5024,22 @@
         <v>333500</v>
       </c>
       <c r="E38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="H38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>900</v>
+      </c>
+      <c r="I38">
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>37</v>
       </c>
@@ -4924,19 +5054,22 @@
         <v>352000</v>
       </c>
       <c r="E39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F39">
         <v>1</v>
       </c>
       <c r="G39">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="H39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>920</v>
+      </c>
+      <c r="I39">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>38</v>
       </c>
@@ -4951,19 +5084,22 @@
         <v>371000</v>
       </c>
       <c r="E40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="H40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>940</v>
+      </c>
+      <c r="I40">
+        <v>23500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>39</v>
       </c>
@@ -4978,19 +5114,22 @@
         <v>390500</v>
       </c>
       <c r="E41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="H41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>960</v>
+      </c>
+      <c r="I41">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>40</v>
       </c>
@@ -5005,19 +5144,22 @@
         <v>410500</v>
       </c>
       <c r="E42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F42">
         <v>1</v>
       </c>
       <c r="G42">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="H42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>980</v>
+      </c>
+      <c r="I42">
+        <v>24500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>41</v>
       </c>
@@ -5032,7 +5174,7 @@
         <v>431000</v>
       </c>
       <c r="E43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -5041,10 +5183,13 @@
         <v>500</v>
       </c>
       <c r="H43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>1000</v>
+      </c>
+      <c r="I43">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>42</v>
       </c>
@@ -5059,19 +5204,22 @@
         <v>452000</v>
       </c>
       <c r="E44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="H44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>1020</v>
+      </c>
+      <c r="I44">
+        <v>25500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>43</v>
       </c>
@@ -5086,19 +5234,22 @@
         <v>473500</v>
       </c>
       <c r="E45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F45">
         <v>1</v>
       </c>
       <c r="G45">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="H45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>1040</v>
+      </c>
+      <c r="I45">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>44</v>
       </c>
@@ -5113,19 +5264,22 @@
         <v>495500</v>
       </c>
       <c r="E46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>500</v>
+        <v>530</v>
       </c>
       <c r="H46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>1060</v>
+      </c>
+      <c r="I46">
+        <v>26500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>45</v>
       </c>
@@ -5140,19 +5294,22 @@
         <v>518000</v>
       </c>
       <c r="E47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="H47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>1080</v>
+      </c>
+      <c r="I47">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>46</v>
       </c>
@@ -5167,19 +5324,22 @@
         <v>541000</v>
       </c>
       <c r="E48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F48">
         <v>1</v>
       </c>
       <c r="G48">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="H48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>1100</v>
+      </c>
+      <c r="I48">
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49">
         <v>47</v>
       </c>
@@ -5194,19 +5354,22 @@
         <v>564500</v>
       </c>
       <c r="E49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="H49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>1120</v>
+      </c>
+      <c r="I49">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50">
         <v>48</v>
       </c>
@@ -5221,19 +5384,22 @@
         <v>588500</v>
       </c>
       <c r="E50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>500</v>
+        <v>570</v>
       </c>
       <c r="H50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>1140</v>
+      </c>
+      <c r="I50">
+        <v>28500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51">
         <v>49</v>
       </c>
@@ -5248,19 +5414,22 @@
         <v>613000</v>
       </c>
       <c r="E51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F51">
         <v>1</v>
       </c>
       <c r="G51">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="H51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>1160</v>
+      </c>
+      <c r="I51">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52">
         <v>50</v>
       </c>
@@ -5275,16 +5444,19 @@
         <v>638000</v>
       </c>
       <c r="E52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>500</v>
+        <v>590</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1180</v>
+      </c>
+      <c r="I52">
+        <v>29500</v>
       </c>
     </row>
   </sheetData>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28320" windowHeight="17540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="constant" sheetId="2" r:id="rId1"/>
@@ -222,7 +222,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="93">
   <si>
     <t>name</t>
   </si>
@@ -291,18 +291,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>果盘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>果篮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>手套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui/fruit/nm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -395,10 +387,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>isBigWin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fruitWin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -579,6 +567,30 @@
   </si>
   <si>
     <t>lifeMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种植</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采摘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偷取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -653,8 +665,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1369">
+  <cellStyleXfs count="1381">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2030,7 +2054,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1369">
+  <cellStyles count="1381">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2715,6 +2739,12 @@
     <cellStyle name="超链接" xfId="1363" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1365" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1367" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1369" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1371" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1373" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1375" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1377" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1379" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -3399,6 +3429,12 @@
     <cellStyle name="访问过的超链接" xfId="1364" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1366" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1368" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1370" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1372" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1374" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1376" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1378" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1380" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3698,8 +3734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3743,13 +3779,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3757,13 +3793,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3771,10 +3807,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5">
         <v>0.5</v>
@@ -3785,10 +3821,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6">
         <v>0.5</v>
@@ -3799,10 +3835,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7">
         <v>0.05</v>
@@ -3813,10 +3849,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -3827,10 +3863,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D9">
         <v>7</v>
@@ -3841,13 +3877,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
         <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3855,10 +3891,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -3869,13 +3905,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3895,7 +3931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection sqref="A1:I52"/>
     </sheetView>
   </sheetViews>
@@ -3916,25 +3952,25 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3951,13 +3987,13 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3974,7 +4010,7 @@
         <v>1000</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -4004,7 +4040,7 @@
         <v>2000</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -4034,7 +4070,7 @@
         <v>3500</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4064,7 +4100,7 @@
         <v>5500</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -4094,7 +4130,7 @@
         <v>8000</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4124,7 +4160,7 @@
         <v>11000</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4154,7 +4190,7 @@
         <v>14500</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -4184,7 +4220,7 @@
         <v>18500</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -4214,7 +4250,7 @@
         <v>23000</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4244,7 +4280,7 @@
         <v>28000</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -4274,7 +4310,7 @@
         <v>33500</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -4304,7 +4340,7 @@
         <v>39500</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -4334,7 +4370,7 @@
         <v>46000</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -4364,7 +4400,7 @@
         <v>53000</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -4394,7 +4430,7 @@
         <v>60500</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -4424,7 +4460,7 @@
         <v>68500</v>
       </c>
       <c r="E18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -4454,7 +4490,7 @@
         <v>77000</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -4484,7 +4520,7 @@
         <v>86000</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -4514,7 +4550,7 @@
         <v>95500</v>
       </c>
       <c r="E21" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -4544,7 +4580,7 @@
         <v>105500</v>
       </c>
       <c r="E22" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -4574,7 +4610,7 @@
         <v>116000</v>
       </c>
       <c r="E23" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -4604,7 +4640,7 @@
         <v>127000</v>
       </c>
       <c r="E24" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -4634,7 +4670,7 @@
         <v>138500</v>
       </c>
       <c r="E25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -4664,7 +4700,7 @@
         <v>150500</v>
       </c>
       <c r="E26" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -4694,7 +4730,7 @@
         <v>163000</v>
       </c>
       <c r="E27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -4724,7 +4760,7 @@
         <v>176000</v>
       </c>
       <c r="E28" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -4754,7 +4790,7 @@
         <v>189500</v>
       </c>
       <c r="E29" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -4784,7 +4820,7 @@
         <v>203500</v>
       </c>
       <c r="E30" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -4814,7 +4850,7 @@
         <v>218000</v>
       </c>
       <c r="E31" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -4844,7 +4880,7 @@
         <v>233000</v>
       </c>
       <c r="E32" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -4874,7 +4910,7 @@
         <v>248500</v>
       </c>
       <c r="E33" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -4904,7 +4940,7 @@
         <v>264500</v>
       </c>
       <c r="E34" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -4934,7 +4970,7 @@
         <v>281000</v>
       </c>
       <c r="E35" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -4964,7 +5000,7 @@
         <v>298000</v>
       </c>
       <c r="E36" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -4994,7 +5030,7 @@
         <v>315500</v>
       </c>
       <c r="E37" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -5024,7 +5060,7 @@
         <v>333500</v>
       </c>
       <c r="E38" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -5054,7 +5090,7 @@
         <v>352000</v>
       </c>
       <c r="E39" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -5084,7 +5120,7 @@
         <v>371000</v>
       </c>
       <c r="E40" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -5114,7 +5150,7 @@
         <v>390500</v>
       </c>
       <c r="E41" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -5144,7 +5180,7 @@
         <v>410500</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -5174,7 +5210,7 @@
         <v>431000</v>
       </c>
       <c r="E43" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -5204,7 +5240,7 @@
         <v>452000</v>
       </c>
       <c r="E44" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -5234,7 +5270,7 @@
         <v>473500</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -5264,7 +5300,7 @@
         <v>495500</v>
       </c>
       <c r="E46" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -5294,7 +5330,7 @@
         <v>518000</v>
       </c>
       <c r="E47" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -5324,7 +5360,7 @@
         <v>541000</v>
       </c>
       <c r="E48" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -5354,7 +5390,7 @@
         <v>564500</v>
       </c>
       <c r="E49" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -5384,7 +5420,7 @@
         <v>588500</v>
       </c>
       <c r="E50" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -5414,7 +5450,7 @@
         <v>613000</v>
       </c>
       <c r="E51" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -5444,7 +5480,7 @@
         <v>638000</v>
       </c>
       <c r="E52" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -5474,10 +5510,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5497,19 +5533,19 @@
         <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
         <v>29</v>
-      </c>
-      <c r="G1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -5526,10 +5562,10 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -5543,13 +5579,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -5570,13 +5606,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -5588,7 +5624,7 @@
         <v>0.15</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H11" si="0">E4*G4</f>
+        <f t="shared" ref="H4:H14" si="0">E4*G4</f>
         <v>0.44999999999999996</v>
       </c>
     </row>
@@ -5597,19 +5633,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>5</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G5">
         <v>0.1</v>
@@ -5624,13 +5660,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -5651,19 +5687,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>15</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G7">
         <v>0.04</v>
@@ -5678,19 +5714,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>20</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G8">
         <v>0.03</v>
@@ -5705,26 +5741,26 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5732,10 +5768,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -5744,14 +5780,14 @@
         <v>100</v>
       </c>
       <c r="F10">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -5759,13 +5795,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -5777,6 +5813,78 @@
         <v>0.2</v>
       </c>
       <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0.05</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0.05</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0.1</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28320" windowHeight="17540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28780" windowHeight="17540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="constant" sheetId="2" r:id="rId1"/>
@@ -222,7 +222,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="94">
   <si>
     <t>name</t>
   </si>
@@ -359,238 +359,242 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>大奖轮次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigWinFruit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大奖水果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4;5;6;7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigWinReday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大奖准备次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fruitWin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slotFruits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮盘水果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;2;3;4;5;6;7;8;9|1;3;5;7;9;2;4;6;8|1;4;7;2;5;8;3;6;9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coinCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coinMutiple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;2;3;4;5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalExp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/fruit/cz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/fruit/xg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/fruit/xj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香蕉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柠檬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樱桃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/fruit/yt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝莓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/fruit/lm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlcokTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;100|5;200|10;300|15;400|20;500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包工头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施肥工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种植工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采摘工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后勤经理</t>
+  </si>
+  <si>
+    <t>工长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠道经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大客户经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副总经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董事长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果大王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看守</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副董事长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lifeReturn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lifeMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种植</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采摘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偷取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isBig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>bigWinRound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大奖轮次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bigWinFruit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大奖水果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4;5;6;7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bigWinReday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大奖准备次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fruitWin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slotFruits</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轮盘水果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;2;3;4;5;6;7;8;9|1;3;5;7;9;2;4;6;8|1;4;7;2;5;8;3;6;9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>coinCost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>coinMutiple</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;2;3;4;5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>totalExp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui/fruit/cz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>橙子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui/fruit/xg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui/fruit/xj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香蕉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柠檬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>樱桃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui/fruit/yt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西瓜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝莓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui/fruit/lm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unlcokTitle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;100|5;200|10;300|15;400|20;500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>零工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包工头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>施肥工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>种植工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采摘工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后勤经理</t>
-  </si>
-  <si>
-    <t>工长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>渠道经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大客户经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副总经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>董事长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水果大王</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看守</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副董事长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lifeReturn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lifeMax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分享</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>repeat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>种植</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采摘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>偷取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>use</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -665,8 +669,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1381">
+  <cellStyleXfs count="1393">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2054,7 +2070,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1381">
+  <cellStyles count="1393">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2745,6 +2761,12 @@
     <cellStyle name="超链接" xfId="1375" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1377" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1379" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1381" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1383" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1385" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1387" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1389" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1391" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -3435,6 +3457,12 @@
     <cellStyle name="访问过的超链接" xfId="1376" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1378" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1380" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1382" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1384" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1386" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1388" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1390" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1392" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3735,7 +3763,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3779,13 +3807,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3793,13 +3821,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3807,7 +3835,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
@@ -3863,10 +3891,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" t="s">
         <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
       </c>
       <c r="D9">
         <v>7</v>
@@ -3877,13 +3905,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
         <v>36</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3891,10 +3919,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
         <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -3905,13 +3933,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
         <v>43</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>44</v>
-      </c>
-      <c r="D12" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3952,25 +3980,25 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" t="s">
-        <v>50</v>
-      </c>
       <c r="E1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" t="s">
         <v>85</v>
-      </c>
-      <c r="I1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3987,13 +4015,13 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4010,7 +4038,7 @@
         <v>1000</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -4040,7 +4068,7 @@
         <v>2000</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -4070,7 +4098,7 @@
         <v>3500</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4100,7 +4128,7 @@
         <v>5500</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -4130,7 +4158,7 @@
         <v>8000</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4160,7 +4188,7 @@
         <v>11000</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4190,7 +4218,7 @@
         <v>14500</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -4220,7 +4248,7 @@
         <v>18500</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -4250,7 +4278,7 @@
         <v>23000</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4280,7 +4308,7 @@
         <v>28000</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -4310,7 +4338,7 @@
         <v>33500</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -4340,7 +4368,7 @@
         <v>39500</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -4370,7 +4398,7 @@
         <v>46000</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -4400,7 +4428,7 @@
         <v>53000</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -4430,7 +4458,7 @@
         <v>60500</v>
       </c>
       <c r="E17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -4460,7 +4488,7 @@
         <v>68500</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -4490,7 +4518,7 @@
         <v>77000</v>
       </c>
       <c r="E19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -4520,7 +4548,7 @@
         <v>86000</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -4550,7 +4578,7 @@
         <v>95500</v>
       </c>
       <c r="E21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -4580,7 +4608,7 @@
         <v>105500</v>
       </c>
       <c r="E22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -4610,7 +4638,7 @@
         <v>116000</v>
       </c>
       <c r="E23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -4640,7 +4668,7 @@
         <v>127000</v>
       </c>
       <c r="E24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -4670,7 +4698,7 @@
         <v>138500</v>
       </c>
       <c r="E25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -4700,7 +4728,7 @@
         <v>150500</v>
       </c>
       <c r="E26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -4730,7 +4758,7 @@
         <v>163000</v>
       </c>
       <c r="E27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -4760,7 +4788,7 @@
         <v>176000</v>
       </c>
       <c r="E28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -4790,7 +4818,7 @@
         <v>189500</v>
       </c>
       <c r="E29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -4820,7 +4848,7 @@
         <v>203500</v>
       </c>
       <c r="E30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -4850,7 +4878,7 @@
         <v>218000</v>
       </c>
       <c r="E31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -4880,7 +4908,7 @@
         <v>233000</v>
       </c>
       <c r="E32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -4910,7 +4938,7 @@
         <v>248500</v>
       </c>
       <c r="E33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -4940,7 +4968,7 @@
         <v>264500</v>
       </c>
       <c r="E34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -4970,7 +4998,7 @@
         <v>281000</v>
       </c>
       <c r="E35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -5000,7 +5028,7 @@
         <v>298000</v>
       </c>
       <c r="E36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -5030,7 +5058,7 @@
         <v>315500</v>
       </c>
       <c r="E37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -5060,7 +5088,7 @@
         <v>333500</v>
       </c>
       <c r="E38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -5090,7 +5118,7 @@
         <v>352000</v>
       </c>
       <c r="E39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -5120,7 +5148,7 @@
         <v>371000</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -5150,7 +5178,7 @@
         <v>390500</v>
       </c>
       <c r="E41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -5180,7 +5208,7 @@
         <v>410500</v>
       </c>
       <c r="E42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -5210,7 +5238,7 @@
         <v>431000</v>
       </c>
       <c r="E43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -5240,7 +5268,7 @@
         <v>452000</v>
       </c>
       <c r="E44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -5270,7 +5298,7 @@
         <v>473500</v>
       </c>
       <c r="E45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -5300,7 +5328,7 @@
         <v>495500</v>
       </c>
       <c r="E46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -5330,7 +5358,7 @@
         <v>518000</v>
       </c>
       <c r="E47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -5360,7 +5388,7 @@
         <v>541000</v>
       </c>
       <c r="E48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -5390,7 +5418,7 @@
         <v>564500</v>
       </c>
       <c r="E49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -5420,7 +5448,7 @@
         <v>588500</v>
       </c>
       <c r="E50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -5450,7 +5478,7 @@
         <v>613000</v>
       </c>
       <c r="E51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -5480,7 +5508,7 @@
         <v>638000</v>
       </c>
       <c r="E52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -5510,7 +5538,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
@@ -5518,11 +5546,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="4" width="14.1640625" customWidth="1"/>
-    <col min="7" max="8" width="15.1640625" customWidth="1"/>
+    <col min="3" max="5" width="14.1640625" customWidth="1"/>
+    <col min="8" max="9" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -5533,22 +5561,25 @@
         <v>15</v>
       </c>
       <c r="D1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" t="s">
         <v>92</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" t="s">
-        <v>42</v>
-      </c>
       <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -5562,105 +5593,117 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
       </c>
       <c r="H2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>5</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.2</v>
       </c>
-      <c r="H3">
-        <f>E3*G3</f>
+      <c r="I3">
+        <f>F3*H3</f>
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>3</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>5</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.15</v>
       </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H14" si="0">E4*G4</f>
+      <c r="I4">
+        <f>F4*H4</f>
         <v>0.44999999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>10</v>
       </c>
-      <c r="G5">
-        <v>0.1</v>
-      </c>
       <c r="H5">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>0.11</v>
+      </c>
+      <c r="I5">
+        <f>F5*H5</f>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
@@ -5669,79 +5712,88 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>10</v>
       </c>
       <c r="G6">
-        <v>0.05</v>
+        <v>10</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.08</v>
+      </c>
+      <c r="I6">
+        <f>F6*H6</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" t="s">
         <v>60</v>
-      </c>
-      <c r="C7" t="s">
-        <v>61</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>15</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>20</v>
       </c>
-      <c r="G7">
-        <v>0.04</v>
-      </c>
       <c r="H7">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.06</v>
+      </c>
+      <c r="I7">
+        <f>F7*H7</f>
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
         <v>57</v>
-      </c>
-      <c r="C8" t="s">
-        <v>58</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>20</v>
       </c>
       <c r="G8">
-        <v>0.03</v>
+        <v>20</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.05</v>
+      </c>
+      <c r="I8">
+        <f>F8*H8</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
@@ -5756,14 +5808,17 @@
         <v>0</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>0.2</v>
       </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <f>F9*H9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5777,25 +5832,28 @@
         <v>1</v>
       </c>
       <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>100</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
       <c r="G10">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.04</v>
+      </c>
+      <c r="I10">
+        <f>F10*H10</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -5810,19 +5868,22 @@
         <v>0</v>
       </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>0.2</v>
       </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <f>F11*H11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -5834,19 +5895,22 @@
         <v>0</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>0.05</v>
       </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <f>F12*H12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -5858,19 +5922,22 @@
         <v>0</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>0.05</v>
       </c>
-      <c r="H13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <f>F13*H13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -5882,10 +5949,13 @@
         <v>0</v>
       </c>
       <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>0.1</v>
       </c>
-      <c r="H14">
-        <f t="shared" si="0"/>
+      <c r="I14">
+        <f>F14*H14</f>
         <v>0</v>
       </c>
     </row>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28780" windowHeight="17540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28840" windowHeight="17540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="constant" sheetId="2" r:id="rId1"/>
@@ -222,7 +222,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="96">
   <si>
     <t>name</t>
   </si>
@@ -595,6 +595,14 @@
   </si>
   <si>
     <t>bigWinRound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始精力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstEnergy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -669,8 +677,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1393">
+  <cellStyleXfs count="1407">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2070,7 +2092,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1393">
+  <cellStyles count="1407">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2767,6 +2789,13 @@
     <cellStyle name="超链接" xfId="1387" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1389" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1391" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1393" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1395" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1397" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1399" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1401" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1403" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1405" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -3463,6 +3492,13 @@
     <cellStyle name="访问过的超链接" xfId="1388" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1390" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1392" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1394" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1396" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1398" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1400" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1402" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1404" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1406" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3760,10 +3796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3940,6 +3976,20 @@
       </c>
       <c r="D12" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13">
+        <v>3000</v>
       </c>
     </row>
   </sheetData>
@@ -5541,7 +5591,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5799,23 +5849,23 @@
         <v>19</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I9">
         <f>F9*H9</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:9">

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28840" windowHeight="17540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="25840" windowHeight="16060" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="constant" sheetId="2" r:id="rId1"/>
     <sheet name="playerLevel" sheetId="9" r:id="rId2"/>
     <sheet name="fruit" sheetId="21" r:id="rId3"/>
+    <sheet name="plant" sheetId="22" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -222,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="143">
   <si>
     <t>name</t>
   </si>
@@ -491,23 +492,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>零工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包工头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>施肥工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>种植工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采摘工</t>
+    <t>水果大王</t>
+  </si>
+  <si>
+    <t>工长</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -515,26 +503,214 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>副总经理</t>
+  </si>
+  <si>
+    <t>董事长</t>
+  </si>
+  <si>
+    <t>lifeReturn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lifeMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种植</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采摘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偷取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isBig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigWinRound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始精力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstEnergy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>果园看守</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>果园小时工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>果园学徒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级种植工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级施肥工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级除草工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级采摘工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级种植工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级施肥工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级除草工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级采摘工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级种植工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级施肥工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级除草工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级采摘工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工长助理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后勤助理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小卡司机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购助理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售助理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠道助理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡车司机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠道经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>后勤经理</t>
-  </si>
-  <si>
-    <t>工长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>渠道经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大客户经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副总经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运输部长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售总监</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠道总监</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副工长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后勤部长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购部长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场助理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场总监</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总经理助理</t>
+  </si>
+  <si>
+    <t>董事长秘书</t>
+  </si>
+  <si>
+    <t>董事会主席</t>
+  </si>
+  <si>
+    <t>代理经销商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总经销商</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -542,67 +718,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>董事长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水果大王</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看守</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副董事长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lifeReturn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lifeMax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分享</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>repeat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>种植</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采摘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>偷取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>use</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isBig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bigWinRound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始精力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstEnergy</t>
+    <t>初级嫁接工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级嫁接工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级嫁接工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>果业协会会长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙子树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西瓜地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香蕉林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柠檬树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樱桃树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝莓地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlocklv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plantcost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addExpPer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>growthTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>growthCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -610,7 +794,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -659,6 +843,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -677,7 +869,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1407">
+  <cellStyleXfs count="1491">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2085,14 +2277,99 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1407">
+  <cellStyles count="1491">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2796,6 +3073,48 @@
     <cellStyle name="超链接" xfId="1401" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1403" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1405" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1407" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1409" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1411" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1413" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1415" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1417" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1419" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1421" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1423" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1425" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1427" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1429" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1431" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1433" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1435" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1437" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1439" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1441" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1443" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1445" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1447" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1449" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1451" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1453" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1455" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1457" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1459" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1461" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1463" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1465" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1467" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1469" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1471" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1473" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1475" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1477" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1479" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1481" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1483" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1485" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1487" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1489" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -3499,6 +3818,48 @@
     <cellStyle name="访问过的超链接" xfId="1402" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1404" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1406" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1408" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1410" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1412" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1414" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1416" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1418" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1420" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1422" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1424" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1426" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1428" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1430" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1432" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1434" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1436" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1438" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1440" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1442" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1444" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1446" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1448" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1450" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1452" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1454" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1456" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1458" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1460" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1462" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1464" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1466" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1468" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1470" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1472" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1474" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1476" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1478" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1480" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1482" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1484" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1486" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1488" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1490" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3927,7 +4288,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
@@ -3983,10 +4344,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D13">
         <v>3000</v>
@@ -4009,8 +4370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection sqref="A1:I52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4045,10 +4406,10 @@
         <v>66</v>
       </c>
       <c r="H1" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="I1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -4073,6 +4434,12 @@
       <c r="G2" t="s">
         <v>63</v>
       </c>
+      <c r="H2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I2" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
@@ -4085,10 +4452,11 @@
         <v>500</v>
       </c>
       <c r="D3">
-        <v>1000</v>
+        <f>C3</f>
+        <v>500</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -4115,13 +4483,13 @@
       </c>
       <c r="D4">
         <f>D3+C4</f>
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>110</v>
@@ -4145,13 +4513,13 @@
       </c>
       <c r="D5">
         <f>D4+C5</f>
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>120</v>
@@ -4174,11 +4542,11 @@
         <v>2000</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:D52" si="0">D5+C6</f>
-        <v>5500</v>
+        <f>D5+C6</f>
+        <v>5000</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -4204,14 +4572,14 @@
         <v>2500</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>8000</v>
+        <f>D6+C7</f>
+        <v>7500</v>
       </c>
       <c r="E7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>140</v>
@@ -4234,14 +4602,14 @@
         <v>3000</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
-        <v>11000</v>
+        <f>D7+C8</f>
+        <v>10500</v>
       </c>
       <c r="E8" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>150</v>
@@ -4264,11 +4632,11 @@
         <v>3500</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
-        <v>14500</v>
+        <f>D8+C9</f>
+        <v>14000</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -4294,14 +4662,14 @@
         <v>4000</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
-        <v>18500</v>
+        <f>D9+C10</f>
+        <v>18000</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>170</v>
@@ -4324,14 +4692,14 @@
         <v>4500</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
-        <v>23000</v>
+        <f>D10+C11</f>
+        <v>22500</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>180</v>
@@ -4354,11 +4722,11 @@
         <v>5000</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
-        <v>28000</v>
+        <f>D11+C12</f>
+        <v>27500</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -4384,14 +4752,14 @@
         <v>5500</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
-        <v>33500</v>
+        <f>D12+C13</f>
+        <v>33000</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>200</v>
@@ -4414,14 +4782,14 @@
         <v>6000</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
-        <v>39500</v>
+        <f>D13+C14</f>
+        <v>39000</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>210</v>
@@ -4444,11 +4812,11 @@
         <v>6500</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
-        <v>46000</v>
+        <f>D14+C15</f>
+        <v>45500</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -4474,14 +4842,14 @@
         <v>7000</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
-        <v>53000</v>
+        <f>D15+C16</f>
+        <v>52500</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <v>230</v>
@@ -4504,14 +4872,14 @@
         <v>7500</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
-        <v>60500</v>
+        <f>D16+C17</f>
+        <v>60000</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <v>240</v>
@@ -4534,11 +4902,11 @@
         <v>8000</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
-        <v>68500</v>
+        <f>D17+C18</f>
+        <v>68000</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -4564,14 +4932,14 @@
         <v>8500</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
-        <v>77000</v>
+        <f>D18+C19</f>
+        <v>76500</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19">
         <v>260</v>
@@ -4594,14 +4962,14 @@
         <v>9000</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
-        <v>86000</v>
+        <f>D19+C20</f>
+        <v>85500</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <v>270</v>
@@ -4624,11 +4992,11 @@
         <v>9500</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
-        <v>95500</v>
+        <f>D20+C21</f>
+        <v>95000</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -4654,14 +5022,14 @@
         <v>10000</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
-        <v>105500</v>
+        <f>D21+C22</f>
+        <v>105000</v>
       </c>
       <c r="E22" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>290</v>
@@ -4684,14 +5052,14 @@
         <v>10500</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
-        <v>116000</v>
+        <f>D22+C23</f>
+        <v>115500</v>
       </c>
       <c r="E23" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
         <v>300</v>
@@ -4714,11 +5082,11 @@
         <v>11000</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
-        <v>127000</v>
+        <f>D23+C24</f>
+        <v>126500</v>
       </c>
       <c r="E24" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -4744,14 +5112,14 @@
         <v>11500</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
-        <v>138500</v>
+        <f>D24+C25</f>
+        <v>138000</v>
       </c>
       <c r="E25" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
         <v>320</v>
@@ -4774,14 +5142,14 @@
         <v>12000</v>
       </c>
       <c r="D26">
-        <f t="shared" si="0"/>
-        <v>150500</v>
+        <f>D25+C26</f>
+        <v>150000</v>
       </c>
       <c r="E26" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <v>330</v>
@@ -4804,11 +5172,11 @@
         <v>12500</v>
       </c>
       <c r="D27">
-        <f t="shared" si="0"/>
-        <v>163000</v>
+        <f>D26+C27</f>
+        <v>162500</v>
       </c>
       <c r="E27" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -4834,14 +5202,14 @@
         <v>13000</v>
       </c>
       <c r="D28">
-        <f t="shared" si="0"/>
-        <v>176000</v>
+        <f>D27+C28</f>
+        <v>175500</v>
       </c>
       <c r="E28" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28">
         <v>350</v>
@@ -4864,14 +5232,14 @@
         <v>13500</v>
       </c>
       <c r="D29">
-        <f t="shared" si="0"/>
-        <v>189500</v>
+        <f>D28+C29</f>
+        <v>189000</v>
       </c>
       <c r="E29" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29">
         <v>360</v>
@@ -4894,11 +5262,11 @@
         <v>14000</v>
       </c>
       <c r="D30">
-        <f t="shared" si="0"/>
-        <v>203500</v>
+        <f>D29+C30</f>
+        <v>203000</v>
       </c>
       <c r="E30" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -4924,14 +5292,14 @@
         <v>14500</v>
       </c>
       <c r="D31">
-        <f t="shared" si="0"/>
-        <v>218000</v>
+        <f>D30+C31</f>
+        <v>217500</v>
       </c>
       <c r="E31" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31">
         <v>380</v>
@@ -4954,14 +5322,14 @@
         <v>15000</v>
       </c>
       <c r="D32">
-        <f t="shared" si="0"/>
-        <v>233000</v>
+        <f>D31+C32</f>
+        <v>232500</v>
       </c>
       <c r="E32" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32">
         <v>390</v>
@@ -4984,11 +5352,11 @@
         <v>15500</v>
       </c>
       <c r="D33">
-        <f t="shared" si="0"/>
-        <v>248500</v>
+        <f>D32+C33</f>
+        <v>248000</v>
       </c>
       <c r="E33" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -5014,14 +5382,14 @@
         <v>16000</v>
       </c>
       <c r="D34">
-        <f t="shared" si="0"/>
-        <v>264500</v>
+        <f>D33+C34</f>
+        <v>264000</v>
       </c>
       <c r="E34" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34">
         <v>410</v>
@@ -5044,14 +5412,14 @@
         <v>16500</v>
       </c>
       <c r="D35">
-        <f t="shared" si="0"/>
-        <v>281000</v>
+        <f>D34+C35</f>
+        <v>280500</v>
       </c>
       <c r="E35" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35">
         <v>420</v>
@@ -5074,11 +5442,11 @@
         <v>17000</v>
       </c>
       <c r="D36">
-        <f t="shared" si="0"/>
-        <v>298000</v>
+        <f>D35+C36</f>
+        <v>297500</v>
       </c>
       <c r="E36" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -5104,14 +5472,14 @@
         <v>17500</v>
       </c>
       <c r="D37">
-        <f t="shared" si="0"/>
-        <v>315500</v>
+        <f>D36+C37</f>
+        <v>315000</v>
       </c>
       <c r="E37" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>440</v>
@@ -5134,14 +5502,14 @@
         <v>18000</v>
       </c>
       <c r="D38">
-        <f t="shared" si="0"/>
-        <v>333500</v>
+        <f>D37+C38</f>
+        <v>333000</v>
       </c>
       <c r="E38" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38">
         <v>450</v>
@@ -5164,11 +5532,11 @@
         <v>18500</v>
       </c>
       <c r="D39">
-        <f t="shared" si="0"/>
-        <v>352000</v>
+        <f>D38+C39</f>
+        <v>351500</v>
       </c>
       <c r="E39" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -5194,14 +5562,14 @@
         <v>19000</v>
       </c>
       <c r="D40">
-        <f t="shared" si="0"/>
-        <v>371000</v>
+        <f>D39+C40</f>
+        <v>370500</v>
       </c>
       <c r="E40" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40">
         <v>470</v>
@@ -5224,14 +5592,14 @@
         <v>19500</v>
       </c>
       <c r="D41">
-        <f t="shared" si="0"/>
-        <v>390500</v>
+        <f>D40+C41</f>
+        <v>390000</v>
       </c>
       <c r="E41" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41">
         <v>480</v>
@@ -5254,11 +5622,11 @@
         <v>20000</v>
       </c>
       <c r="D42">
-        <f t="shared" si="0"/>
-        <v>410500</v>
+        <f>D41+C42</f>
+        <v>410000</v>
       </c>
       <c r="E42" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -5284,14 +5652,14 @@
         <v>20500</v>
       </c>
       <c r="D43">
-        <f t="shared" si="0"/>
-        <v>431000</v>
+        <f>D42+C43</f>
+        <v>430500</v>
       </c>
       <c r="E43" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43">
         <v>500</v>
@@ -5314,14 +5682,14 @@
         <v>21000</v>
       </c>
       <c r="D44">
-        <f t="shared" si="0"/>
-        <v>452000</v>
+        <f>D43+C44</f>
+        <v>451500</v>
       </c>
       <c r="E44" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44">
         <v>510</v>
@@ -5344,11 +5712,11 @@
         <v>21500</v>
       </c>
       <c r="D45">
-        <f t="shared" si="0"/>
-        <v>473500</v>
-      </c>
-      <c r="E45" t="s">
-        <v>83</v>
+        <f>D44+C45</f>
+        <v>473000</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -5374,14 +5742,14 @@
         <v>22000</v>
       </c>
       <c r="D46">
-        <f t="shared" si="0"/>
-        <v>495500</v>
-      </c>
-      <c r="E46" t="s">
-        <v>83</v>
+        <f>D45+C46</f>
+        <v>495000</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46">
         <v>530</v>
@@ -5404,14 +5772,14 @@
         <v>22500</v>
       </c>
       <c r="D47">
-        <f t="shared" si="0"/>
-        <v>518000</v>
-      </c>
-      <c r="E47" t="s">
-        <v>83</v>
+        <f>D46+C47</f>
+        <v>517500</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47">
         <v>540</v>
@@ -5434,11 +5802,11 @@
         <v>23000</v>
       </c>
       <c r="D48">
-        <f t="shared" si="0"/>
-        <v>541000</v>
-      </c>
-      <c r="E48" t="s">
-        <v>80</v>
+        <f>D47+C48</f>
+        <v>540500</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -5464,14 +5832,14 @@
         <v>23500</v>
       </c>
       <c r="D49">
-        <f t="shared" si="0"/>
-        <v>564500</v>
-      </c>
-      <c r="E49" t="s">
-        <v>80</v>
+        <f>D48+C49</f>
+        <v>564000</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49">
         <v>560</v>
@@ -5494,14 +5862,14 @@
         <v>24000</v>
       </c>
       <c r="D50">
-        <f t="shared" si="0"/>
-        <v>588500</v>
-      </c>
-      <c r="E50" t="s">
-        <v>80</v>
+        <f>D49+C50</f>
+        <v>588000</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50">
         <v>570</v>
@@ -5524,11 +5892,11 @@
         <v>24500</v>
       </c>
       <c r="D51">
-        <f t="shared" si="0"/>
-        <v>613000</v>
-      </c>
-      <c r="E51" t="s">
-        <v>81</v>
+        <f>D50+C51</f>
+        <v>612500</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -5554,14 +5922,14 @@
         <v>25000</v>
       </c>
       <c r="D52">
-        <f t="shared" si="0"/>
-        <v>638000</v>
+        <f>D51+C52</f>
+        <v>637500</v>
       </c>
       <c r="E52" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52">
         <v>590</v>
@@ -5590,8 +5958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I3:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5611,10 +5979,10 @@
         <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
         <v>22</v>
@@ -5684,7 +6052,7 @@
         <v>0.2</v>
       </c>
       <c r="I3">
-        <f>F3*H3</f>
+        <f t="shared" ref="I3:I14" si="0">F3*H3</f>
         <v>0.4</v>
       </c>
     </row>
@@ -5714,7 +6082,7 @@
         <v>0.15</v>
       </c>
       <c r="I4">
-        <f>F4*H4</f>
+        <f t="shared" si="0"/>
         <v>0.44999999999999996</v>
       </c>
     </row>
@@ -5744,7 +6112,7 @@
         <v>0.11</v>
       </c>
       <c r="I5">
-        <f>F5*H5</f>
+        <f t="shared" si="0"/>
         <v>0.55000000000000004</v>
       </c>
     </row>
@@ -5774,7 +6142,7 @@
         <v>0.08</v>
       </c>
       <c r="I6">
-        <f>F6*H6</f>
+        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
     </row>
@@ -5804,7 +6172,7 @@
         <v>0.06</v>
       </c>
       <c r="I7">
-        <f>F7*H7</f>
+        <f t="shared" si="0"/>
         <v>0.89999999999999991</v>
       </c>
     </row>
@@ -5834,7 +6202,7 @@
         <v>0.05</v>
       </c>
       <c r="I8">
-        <f>F8*H8</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5843,7 +6211,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
@@ -5864,7 +6232,7 @@
         <v>0.1</v>
       </c>
       <c r="I9">
-        <f>F9*H9</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -5894,7 +6262,7 @@
         <v>0.04</v>
       </c>
       <c r="I10">
-        <f>F10*H10</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -5903,7 +6271,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -5924,7 +6292,7 @@
         <v>0.2</v>
       </c>
       <c r="I11">
-        <f>F11*H11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5933,7 +6301,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -5951,7 +6319,7 @@
         <v>0.05</v>
       </c>
       <c r="I12">
-        <f>F12*H12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5960,7 +6328,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -5978,7 +6346,7 @@
         <v>0.05</v>
       </c>
       <c r="I13">
-        <f>F13*H13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5987,7 +6355,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -6005,7 +6373,7 @@
         <v>0.1</v>
       </c>
       <c r="I14">
-        <f>F14*H14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6020,4 +6388,260 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>2000</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>200</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>3000</v>
+      </c>
+      <c r="F4">
+        <v>60</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <f>F4*G4</f>
+        <v>300</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>4000</v>
+      </c>
+      <c r="F5">
+        <v>70</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H8" si="0">F5*G5</f>
+        <v>420</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>6000</v>
+      </c>
+      <c r="F6">
+        <v>90</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>630</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>8000</v>
+      </c>
+      <c r="F7">
+        <v>110</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>880</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8">
+        <v>40</v>
+      </c>
+      <c r="E8">
+        <v>10000</v>
+      </c>
+      <c r="F8">
+        <v>130</v>
+      </c>
+      <c r="G8">
+        <v>9</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>1170</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/tables.xlsx
+++ b/tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="25840" windowHeight="16060" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="26520" windowHeight="16060" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="constant" sheetId="2" r:id="rId1"/>
@@ -766,27 +766,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>growthTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>growthCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plantcost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>unlocklv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plantcost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>addExpPer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>growthTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>growthCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -869,8 +869,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1491">
+  <cellStyleXfs count="1509">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2369,7 +2387,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1491">
+  <cellStyles count="1509">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -3115,6 +3133,15 @@
     <cellStyle name="超链接" xfId="1485" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1487" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1489" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1491" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1493" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1495" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1497" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1499" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1501" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1503" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1505" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1507" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -3860,6 +3887,15 @@
     <cellStyle name="访问过的超链接" xfId="1486" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1488" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1490" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1492" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1494" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1496" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1498" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1500" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1502" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1504" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1506" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1508" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4370,8 +4406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4435,10 +4471,10 @@
         <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -6392,10 +6428,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6403,7 +6439,7 @@
     <col min="3" max="3" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>129</v>
       </c>
@@ -6414,22 +6450,22 @@
         <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" t="s">
         <v>139</v>
       </c>
-      <c r="F1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="H1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>130</v>
       </c>
@@ -6451,11 +6487,11 @@
       <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6469,22 +6505,19 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="F3">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>200</v>
-      </c>
-      <c r="I3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>2</v>
       </c>
@@ -6498,23 +6531,19 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="F4">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <f>F4*G4</f>
-        <v>300</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6528,23 +6557,19 @@
         <v>10</v>
       </c>
       <c r="E5">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F5">
-        <v>70</v>
+        <v>600</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H8" si="0">F5*G5</f>
-        <v>420</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>4</v>
       </c>
@@ -6558,23 +6583,19 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="F6">
+        <v>1000</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
         <v>90</v>
       </c>
-      <c r="G6">
-        <v>7</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>630</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>5</v>
       </c>
@@ -6588,23 +6609,19 @@
         <v>30</v>
       </c>
       <c r="E7">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="F7">
-        <v>110</v>
+        <v>1400</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
-        <v>880</v>
-      </c>
-      <c r="I7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>6</v>
       </c>
@@ -6618,20 +6635,16 @@
         <v>40</v>
       </c>
       <c r="E8">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F8">
-        <v>130</v>
+        <v>1800</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
-        <v>1170</v>
-      </c>
-      <c r="I8">
-        <v>3</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="26520" windowHeight="16060" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="26700" windowHeight="16060" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="constant" sheetId="2" r:id="rId1"/>
@@ -223,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="145">
   <si>
     <t>name</t>
   </si>
@@ -513,280 +513,288 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>分享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种植</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采摘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偷取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isBig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigWinRound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始精力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstEnergy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>果园看守</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>果园小时工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>果园学徒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级种植工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级施肥工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级除草工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级采摘工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级种植工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级施肥工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级除草工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级采摘工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级种植工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级施肥工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级除草工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级采摘工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工长助理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后勤助理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小卡司机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购助理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售助理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠道助理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡车司机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠道经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后勤经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运输部长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售总监</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠道总监</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副工长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后勤部长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购部长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场助理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场总监</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总经理助理</t>
+  </si>
+  <si>
+    <t>董事长秘书</t>
+  </si>
+  <si>
+    <t>董事会主席</t>
+  </si>
+  <si>
+    <t>代理经销商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总经销商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级嫁接工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级嫁接工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级嫁接工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>果业协会会长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙子树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西瓜地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香蕉林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柠檬树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樱桃树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝莓地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>growthTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>growthCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plantcost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlocklv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addExpPer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>lifeMax</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分享</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>repeat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>种植</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采摘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>偷取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>use</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isBig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bigWinRound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始精力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstEnergy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>果园看守</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>果园小时工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>果园学徒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级种植工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级施肥工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级除草工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级采摘工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级种植工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级施肥工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级除草工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级采摘工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级种植工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级施肥工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级除草工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级采摘工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工长助理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后勤助理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小卡司机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购助理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售助理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>渠道助理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡车司机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>渠道经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后勤经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运输部长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售总监</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>渠道总监</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副工长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后勤部长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购部长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>市场助理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>市场经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>市场总监</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总经理助理</t>
-  </si>
-  <si>
-    <t>董事长秘书</t>
-  </si>
-  <si>
-    <t>董事会主席</t>
-  </si>
-  <si>
-    <t>代理经销商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经销商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总经销商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级嫁接工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级嫁接工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级嫁接工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>果业协会会长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>橙子树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西瓜地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香蕉林</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柠檬树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>樱桃树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝莓地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>growthTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>growthCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plantcost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unlocklv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addExpPer</t>
+    <t>firstGold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初试金币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -869,8 +877,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1509">
+  <cellStyleXfs count="1513">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2387,7 +2399,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1509">
+  <cellStyles count="1513">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -3142,6 +3154,8 @@
     <cellStyle name="超链接" xfId="1503" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1505" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1507" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1509" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1511" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -3896,6 +3910,8 @@
     <cellStyle name="访问过的超链接" xfId="1504" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1506" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1508" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1510" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1512" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4193,10 +4209,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D13"/>
+      <selection sqref="A1:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4324,7 +4340,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
@@ -4380,13 +4396,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D13">
         <v>3000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>
@@ -4406,8 +4436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4445,7 +4475,7 @@
         <v>72</v>
       </c>
       <c r="I1" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -4471,10 +4501,10 @@
         <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4492,7 +4522,7 @@
         <v>500</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -4522,7 +4552,7 @@
         <v>1500</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -4552,7 +4582,7 @@
         <v>3000</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -4582,7 +4612,7 @@
         <v>5000</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -4612,7 +4642,7 @@
         <v>7500</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -4642,7 +4672,7 @@
         <v>10500</v>
       </c>
       <c r="E8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -4672,7 +4702,7 @@
         <v>14000</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -4702,7 +4732,7 @@
         <v>18000</v>
       </c>
       <c r="E10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -4732,7 +4762,7 @@
         <v>22500</v>
       </c>
       <c r="E11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -4762,7 +4792,7 @@
         <v>27500</v>
       </c>
       <c r="E12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -4792,7 +4822,7 @@
         <v>33000</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -4822,7 +4852,7 @@
         <v>39000</v>
       </c>
       <c r="E14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -4852,7 +4882,7 @@
         <v>45500</v>
       </c>
       <c r="E15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -4882,7 +4912,7 @@
         <v>52500</v>
       </c>
       <c r="E16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -4912,7 +4942,7 @@
         <v>60000</v>
       </c>
       <c r="E17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -4942,7 +4972,7 @@
         <v>68000</v>
       </c>
       <c r="E18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -4972,7 +5002,7 @@
         <v>76500</v>
       </c>
       <c r="E19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -5002,7 +5032,7 @@
         <v>85500</v>
       </c>
       <c r="E20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -5032,7 +5062,7 @@
         <v>95000</v>
       </c>
       <c r="E21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -5062,7 +5092,7 @@
         <v>105000</v>
       </c>
       <c r="E22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -5092,7 +5122,7 @@
         <v>115500</v>
       </c>
       <c r="E23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -5122,7 +5152,7 @@
         <v>126500</v>
       </c>
       <c r="E24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -5152,7 +5182,7 @@
         <v>138000</v>
       </c>
       <c r="E25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -5182,7 +5212,7 @@
         <v>150000</v>
       </c>
       <c r="E26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -5212,7 +5242,7 @@
         <v>162500</v>
       </c>
       <c r="E27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -5242,7 +5272,7 @@
         <v>175500</v>
       </c>
       <c r="E28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -5272,7 +5302,7 @@
         <v>189000</v>
       </c>
       <c r="E29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -5302,7 +5332,7 @@
         <v>203000</v>
       </c>
       <c r="E30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -5332,7 +5362,7 @@
         <v>217500</v>
       </c>
       <c r="E31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -5392,7 +5422,7 @@
         <v>248000</v>
       </c>
       <c r="E33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -5422,7 +5452,7 @@
         <v>264000</v>
       </c>
       <c r="E34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -5452,7 +5482,7 @@
         <v>280500</v>
       </c>
       <c r="E35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -5482,7 +5512,7 @@
         <v>297500</v>
       </c>
       <c r="E36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -5542,7 +5572,7 @@
         <v>333000</v>
       </c>
       <c r="E38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -5572,7 +5602,7 @@
         <v>351500</v>
       </c>
       <c r="E39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -5602,7 +5632,7 @@
         <v>370500</v>
       </c>
       <c r="E40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -5632,7 +5662,7 @@
         <v>390000</v>
       </c>
       <c r="E41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -5662,7 +5692,7 @@
         <v>410000</v>
       </c>
       <c r="E42" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -5692,7 +5722,7 @@
         <v>430500</v>
       </c>
       <c r="E43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -5722,7 +5752,7 @@
         <v>451500</v>
       </c>
       <c r="E44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -5752,7 +5782,7 @@
         <v>473000</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -5812,7 +5842,7 @@
         <v>517500</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -5842,7 +5872,7 @@
         <v>540500</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -5902,7 +5932,7 @@
         <v>588000</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -5932,7 +5962,7 @@
         <v>612500</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -6015,10 +6045,10 @@
         <v>15</v>
       </c>
       <c r="D1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" t="s">
         <v>79</v>
-      </c>
-      <c r="E1" t="s">
-        <v>80</v>
       </c>
       <c r="F1" t="s">
         <v>22</v>
@@ -6247,7 +6277,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
@@ -6307,7 +6337,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -6337,7 +6367,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -6364,7 +6394,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -6391,7 +6421,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -6431,7 +6461,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H3" sqref="H3:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6441,7 +6471,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
@@ -6450,24 +6480,24 @@
         <v>15</v>
       </c>
       <c r="D1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" t="s">
         <v>141</v>
       </c>
-      <c r="E1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F1" t="s">
-        <v>142</v>
-      </c>
       <c r="G1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -6496,7 +6526,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C3" t="s">
         <v>50</v>
@@ -6505,16 +6535,16 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -6522,7 +6552,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C4" t="s">
         <v>52</v>
@@ -6531,16 +6561,16 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F4">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -6548,7 +6578,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C5" t="s">
         <v>53</v>
@@ -6557,16 +6587,16 @@
         <v>10</v>
       </c>
       <c r="E5">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="F5">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -6574,7 +6604,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
@@ -6583,16 +6613,16 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="F6">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6600,7 +6630,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7" t="s">
         <v>60</v>
@@ -6609,16 +6639,16 @@
         <v>30</v>
       </c>
       <c r="E7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F7">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>120</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6626,7 +6656,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C8" t="s">
         <v>57</v>
@@ -6635,16 +6665,16 @@
         <v>40</v>
       </c>
       <c r="E8">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="F8">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="26700" windowHeight="16060" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="26900" windowHeight="16060" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="constant" sheetId="2" r:id="rId1"/>
@@ -223,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="147">
   <si>
     <t>name</t>
   </si>
@@ -795,6 +795,14 @@
   </si>
   <si>
     <t>初试金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shareEnergy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享获得精力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -877,8 +885,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1513">
+  <cellStyleXfs count="1527">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2399,7 +2421,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1513">
+  <cellStyles count="1527">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -3156,6 +3178,13 @@
     <cellStyle name="超链接" xfId="1507" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1509" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1511" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1513" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1515" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1517" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1519" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1521" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1523" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1525" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -3912,6 +3941,13 @@
     <cellStyle name="访问过的超链接" xfId="1508" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1510" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1512" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1514" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1516" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1518" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1520" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1522" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1524" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1526" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4209,10 +4245,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4417,6 +4453,20 @@
       </c>
       <c r="D14">
         <v>5000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
@@ -4436,8 +4486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6461,7 +6511,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H8"/>
+      <selection activeCell="I1" sqref="I1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6535,16 +6585,16 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="F3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -6561,16 +6611,16 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>750</v>
+        <v>3000</v>
       </c>
       <c r="F4">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>15</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -6587,16 +6637,16 @@
         <v>10</v>
       </c>
       <c r="E5">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="F5">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -6613,16 +6663,16 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1500</v>
+        <v>6000</v>
       </c>
       <c r="F6">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>30</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6639,16 +6689,16 @@
         <v>30</v>
       </c>
       <c r="E7">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="F7">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>40</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6665,16 +6715,16 @@
         <v>40</v>
       </c>
       <c r="E8">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="F8">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>50</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="26900" windowHeight="16060" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="-60" yWindow="0" windowWidth="27200" windowHeight="16060" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="constant" sheetId="2" r:id="rId1"/>
@@ -798,11 +798,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>分享获得精力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>shareEnergy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分享获得精力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -885,8 +885,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1527">
+  <cellStyleXfs count="1533">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2421,7 +2427,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1527">
+  <cellStyles count="1533">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -3185,6 +3191,9 @@
     <cellStyle name="超链接" xfId="1521" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1523" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1525" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1527" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1529" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1531" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -3948,6 +3957,9 @@
     <cellStyle name="访问过的超链接" xfId="1522" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1524" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1526" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1528" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1530" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1532" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4248,7 +4260,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4460,10 +4472,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" t="s">
         <v>145</v>
-      </c>
-      <c r="C15" t="s">
-        <v>146</v>
       </c>
       <c r="D15">
         <v>2000</v>
@@ -6511,7 +6523,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:L1048576"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6585,16 +6597,16 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="F3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -6611,16 +6623,16 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="F4">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>75</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -6637,16 +6649,16 @@
         <v>10</v>
       </c>
       <c r="E5">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F5">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -6663,16 +6675,16 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="F6">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>120</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6689,16 +6701,16 @@
         <v>30</v>
       </c>
       <c r="E7">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="F7">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6715,16 +6727,16 @@
         <v>40</v>
       </c>
       <c r="E8">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F8">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>180</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="0" windowWidth="27200" windowHeight="16060" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="-60" yWindow="0" windowWidth="27600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="constant" sheetId="2" r:id="rId1"/>
@@ -223,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="155">
   <si>
     <t>name</t>
   </si>
@@ -300,18 +300,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ui/fruit/gp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui/fruit/gl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ui/fruit/st</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>winMuti</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -738,30 +730,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>橙子树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西瓜地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香蕉林</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柠檬树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>樱桃树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝莓地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -803,6 +771,70 @@
   </si>
   <si>
     <t>shareEnergy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/tree/cz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/tree/xg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/tree/xj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/tree/nm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/tree/lm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/tree/yt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香蕉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柠檬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝莓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樱桃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/fruit/share</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/fruit/repeat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/fruit/zz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/fruit/handIme</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noRotation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -885,8 +917,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1533">
+  <cellStyleXfs count="1555">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2427,7 +2481,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1533">
+  <cellStyles count="1555">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -3194,6 +3248,17 @@
     <cellStyle name="超链接" xfId="1527" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1529" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1531" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1533" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1535" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1537" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1539" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1541" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1543" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1545" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1547" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1549" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1551" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1553" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -3960,6 +4025,17 @@
     <cellStyle name="访问过的超链接" xfId="1528" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1530" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1532" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1534" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1536" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1538" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1540" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1542" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1544" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1546" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1548" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1550" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1552" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1554" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4304,13 +4380,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4318,13 +4394,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4332,10 +4408,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5">
         <v>0.5</v>
@@ -4346,10 +4422,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <v>0.5</v>
@@ -4360,10 +4436,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7">
         <v>0.05</v>
@@ -4374,10 +4450,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -4388,10 +4464,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9">
         <v>7</v>
@@ -4402,13 +4478,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
         <v>35</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4416,10 +4492,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -4430,13 +4506,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
         <v>42</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4444,10 +4520,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D13">
         <v>3000</v>
@@ -4458,10 +4534,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C14" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D14">
         <v>5000</v>
@@ -4472,10 +4548,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C15" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D15">
         <v>2000</v>
@@ -4519,25 +4595,25 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
         <v>62</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>64</v>
       </c>
-      <c r="G1" t="s">
-        <v>66</v>
-      </c>
       <c r="H1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -4554,19 +4630,19 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
         <v>61</v>
       </c>
-      <c r="F2" t="s">
-        <v>63</v>
-      </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="I2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4584,7 +4660,7 @@
         <v>500</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -4614,7 +4690,7 @@
         <v>1500</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -4644,7 +4720,7 @@
         <v>3000</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -4674,7 +4750,7 @@
         <v>5000</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -4704,7 +4780,7 @@
         <v>7500</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -4734,7 +4810,7 @@
         <v>10500</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -4764,7 +4840,7 @@
         <v>14000</v>
       </c>
       <c r="E9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -4794,7 +4870,7 @@
         <v>18000</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -4824,7 +4900,7 @@
         <v>22500</v>
       </c>
       <c r="E11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -4854,7 +4930,7 @@
         <v>27500</v>
       </c>
       <c r="E12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -4884,7 +4960,7 @@
         <v>33000</v>
       </c>
       <c r="E13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -4914,7 +4990,7 @@
         <v>39000</v>
       </c>
       <c r="E14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -4944,7 +5020,7 @@
         <v>45500</v>
       </c>
       <c r="E15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -4974,7 +5050,7 @@
         <v>52500</v>
       </c>
       <c r="E16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -5004,7 +5080,7 @@
         <v>60000</v>
       </c>
       <c r="E17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -5034,7 +5110,7 @@
         <v>68000</v>
       </c>
       <c r="E18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -5064,7 +5140,7 @@
         <v>76500</v>
       </c>
       <c r="E19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -5094,7 +5170,7 @@
         <v>85500</v>
       </c>
       <c r="E20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -5124,7 +5200,7 @@
         <v>95000</v>
       </c>
       <c r="E21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -5154,7 +5230,7 @@
         <v>105000</v>
       </c>
       <c r="E22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -5184,7 +5260,7 @@
         <v>115500</v>
       </c>
       <c r="E23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -5214,7 +5290,7 @@
         <v>126500</v>
       </c>
       <c r="E24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -5244,7 +5320,7 @@
         <v>138000</v>
       </c>
       <c r="E25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -5274,7 +5350,7 @@
         <v>150000</v>
       </c>
       <c r="E26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -5304,7 +5380,7 @@
         <v>162500</v>
       </c>
       <c r="E27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -5334,7 +5410,7 @@
         <v>175500</v>
       </c>
       <c r="E28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -5364,7 +5440,7 @@
         <v>189000</v>
       </c>
       <c r="E29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -5394,7 +5470,7 @@
         <v>203000</v>
       </c>
       <c r="E30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -5424,7 +5500,7 @@
         <v>217500</v>
       </c>
       <c r="E31" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -5454,7 +5530,7 @@
         <v>232500</v>
       </c>
       <c r="E32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -5484,7 +5560,7 @@
         <v>248000</v>
       </c>
       <c r="E33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -5514,7 +5590,7 @@
         <v>264000</v>
       </c>
       <c r="E34" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -5544,7 +5620,7 @@
         <v>280500</v>
       </c>
       <c r="E35" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -5574,7 +5650,7 @@
         <v>297500</v>
       </c>
       <c r="E36" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -5604,7 +5680,7 @@
         <v>315000</v>
       </c>
       <c r="E37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -5634,7 +5710,7 @@
         <v>333000</v>
       </c>
       <c r="E38" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -5664,7 +5740,7 @@
         <v>351500</v>
       </c>
       <c r="E39" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -5694,7 +5770,7 @@
         <v>370500</v>
       </c>
       <c r="E40" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -5724,7 +5800,7 @@
         <v>390000</v>
       </c>
       <c r="E41" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -5754,7 +5830,7 @@
         <v>410000</v>
       </c>
       <c r="E42" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -5784,7 +5860,7 @@
         <v>430500</v>
       </c>
       <c r="E43" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -5814,7 +5890,7 @@
         <v>451500</v>
       </c>
       <c r="E44" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -5844,7 +5920,7 @@
         <v>473000</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -5874,7 +5950,7 @@
         <v>495000</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -5904,7 +5980,7 @@
         <v>517500</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -5934,7 +6010,7 @@
         <v>540500</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -5964,7 +6040,7 @@
         <v>564000</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -5994,7 +6070,7 @@
         <v>588000</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -6024,7 +6100,7 @@
         <v>612500</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -6054,7 +6130,7 @@
         <v>637500</v>
       </c>
       <c r="E52" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -6084,19 +6160,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I3:I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="5" width="14.1640625" customWidth="1"/>
-    <col min="8" max="9" width="15.1640625" customWidth="1"/>
+    <col min="3" max="6" width="14.1640625" customWidth="1"/>
+    <col min="9" max="10" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -6107,25 +6183,28 @@
         <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -6139,30 +6218,33 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -6171,28 +6253,31 @@
         <v>0</v>
       </c>
       <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>2</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>5</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.2</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I14" si="0">F3*H3</f>
+      <c r="J3">
+        <f t="shared" ref="J3:J14" si="0">G3*I3</f>
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -6201,28 +6286,31 @@
         <v>0</v>
       </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>3</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>5</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.15</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <f t="shared" si="0"/>
         <v>0.44999999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -6231,25 +6319,28 @@
         <v>0</v>
       </c>
       <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>5</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>10</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.11</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <f t="shared" si="0"/>
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
@@ -6258,113 +6349,125 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>10</v>
       </c>
       <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
         <v>0.08</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>15</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>20</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.06</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <f t="shared" si="0"/>
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>20</v>
       </c>
       <c r="H8">
+        <v>20</v>
+      </c>
+      <c r="I8">
         <v>0.05</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
         <v>0</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>50</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.1</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>8</v>
       </c>
@@ -6372,7 +6475,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -6381,34 +6484,37 @@
         <v>0</v>
       </c>
       <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>100</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.04</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -6417,22 +6523,28 @@
         <v>0</v>
       </c>
       <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>0.2</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>73</v>
+      </c>
+      <c r="C12" t="s">
+        <v>152</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -6444,19 +6556,25 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I12">
+        <v>0.1</v>
+      </c>
+      <c r="J12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>74</v>
+      </c>
+      <c r="C13" t="s">
+        <v>153</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -6471,25 +6589,31 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I13">
+        <v>0.1</v>
+      </c>
+      <c r="J13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>75</v>
+      </c>
+      <c r="C14" t="s">
+        <v>151</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -6498,9 +6622,12 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6522,8 +6649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6533,7 +6660,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
@@ -6542,24 +6669,24 @@
         <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="G1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="H1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -6588,10 +6715,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -6606,7 +6733,7 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -6614,10 +6741,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>140</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -6632,7 +6759,7 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>35</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -6640,10 +6767,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -6658,7 +6785,7 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -6666,10 +6793,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="D6">
         <v>20</v>
@@ -6684,7 +6811,7 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>45</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6692,10 +6819,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="D7">
         <v>30</v>
@@ -6710,7 +6837,7 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>50</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6718,10 +6845,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="D8">
         <v>40</v>
@@ -6736,7 +6863,7 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>55</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="0" windowWidth="27600" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-60" yWindow="0" windowWidth="27800" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="constant" sheetId="2" r:id="rId1"/>
@@ -223,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="156">
   <si>
     <t>name</t>
   </si>
@@ -835,6 +835,10 @@
   </si>
   <si>
     <t>noRotation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isNormal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -917,8 +921,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1555">
+  <cellStyleXfs count="1557">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2481,7 +2487,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1555">
+  <cellStyles count="1557">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -3259,6 +3265,7 @@
     <cellStyle name="超链接" xfId="1549" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1551" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1553" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1555" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -4036,6 +4043,7 @@
     <cellStyle name="访问过的超链接" xfId="1550" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1552" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1554" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1556" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6160,19 +6168,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="6" width="14.1640625" customWidth="1"/>
-    <col min="9" max="10" width="15.1640625" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" customWidth="1"/>
+    <col min="10" max="11" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -6192,19 +6201,22 @@
         <v>77</v>
       </c>
       <c r="G1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>39</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -6224,19 +6236,22 @@
         <v>61</v>
       </c>
       <c r="G2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>26</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
       </c>
       <c r="J2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6256,20 +6271,23 @@
         <v>0</v>
       </c>
       <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
         <v>2</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>5</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.2</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J14" si="0">G3*I3</f>
+      <c r="K3">
+        <f t="shared" ref="K3:K14" si="0">H3*J3</f>
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>2</v>
       </c>
@@ -6289,20 +6307,23 @@
         <v>0</v>
       </c>
       <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
         <v>3</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>5</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.15</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <f t="shared" si="0"/>
         <v>0.44999999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6322,20 +6343,23 @@
         <v>0</v>
       </c>
       <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
         <v>5</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>10</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.11</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <f t="shared" si="0"/>
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>4</v>
       </c>
@@ -6355,20 +6379,23 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>10</v>
       </c>
       <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6">
         <v>0.08</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>5</v>
       </c>
@@ -6388,20 +6415,23 @@
         <v>1</v>
       </c>
       <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
         <v>15</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>20</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.06</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <f t="shared" si="0"/>
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>6</v>
       </c>
@@ -6421,20 +6451,23 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>20</v>
       </c>
       <c r="I8">
+        <v>20</v>
+      </c>
+      <c r="J8">
         <v>0.05</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>7</v>
       </c>
@@ -6454,20 +6487,23 @@
         <v>0</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>50</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0</v>
       </c>
-      <c r="I9">
-        <v>0.1</v>
-      </c>
       <c r="J9">
+        <v>0.2</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>8</v>
       </c>
@@ -6487,20 +6523,23 @@
         <v>0</v>
       </c>
       <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
         <v>100</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.04</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>9</v>
       </c>
@@ -6520,20 +6559,23 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
         <v>0.2</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>10</v>
       </c>
@@ -6559,14 +6601,17 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J12">
+        <v>0.3</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>11</v>
       </c>
@@ -6577,7 +6622,7 @@
         <v>153</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -6592,14 +6637,17 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J13">
+        <v>0.2</v>
+      </c>
+      <c r="K13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>12</v>
       </c>
@@ -6628,6 +6676,9 @@
         <v>0</v>
       </c>
       <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="0" windowWidth="27800" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-60" yWindow="0" windowWidth="27820" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="constant" sheetId="2" r:id="rId1"/>
@@ -730,6 +730,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>plantcost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -739,10 +743,6 @@
   </si>
   <si>
     <t>growthCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plantcost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -921,8 +921,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1557">
+  <cellStyleXfs count="1561">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2487,7 +2491,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1557">
+  <cellStyles count="1561">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -3266,6 +3270,8 @@
     <cellStyle name="超链接" xfId="1551" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1553" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1555" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1557" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1559" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -4044,6 +4050,8 @@
     <cellStyle name="访问过的超链接" xfId="1552" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1554" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1556" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1558" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1560" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4582,8 +4590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4647,10 +4655,10 @@
         <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4664,8 +4672,7 @@
         <v>500</v>
       </c>
       <c r="D3">
-        <f>C3</f>
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>81</v>
@@ -4694,8 +4701,7 @@
         <v>1000</v>
       </c>
       <c r="D4">
-        <f>D3+C4</f>
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="E4" t="s">
         <v>82</v>
@@ -4724,8 +4730,8 @@
         <v>1500</v>
       </c>
       <c r="D5">
-        <f>D4+C5</f>
-        <v>3000</v>
+        <f>D4+C4</f>
+        <v>1500</v>
       </c>
       <c r="E5" t="s">
         <v>83</v>
@@ -4754,8 +4760,8 @@
         <v>2000</v>
       </c>
       <c r="D6">
-        <f>D5+C6</f>
-        <v>5000</v>
+        <f t="shared" ref="D6:D52" si="0">D5+C5</f>
+        <v>3000</v>
       </c>
       <c r="E6" t="s">
         <v>84</v>
@@ -4784,8 +4790,8 @@
         <v>2500</v>
       </c>
       <c r="D7">
-        <f>D6+C7</f>
-        <v>7500</v>
+        <f t="shared" si="0"/>
+        <v>5000</v>
       </c>
       <c r="E7" t="s">
         <v>85</v>
@@ -4814,8 +4820,8 @@
         <v>3000</v>
       </c>
       <c r="D8">
-        <f>D7+C8</f>
-        <v>10500</v>
+        <f t="shared" si="0"/>
+        <v>7500</v>
       </c>
       <c r="E8" t="s">
         <v>86</v>
@@ -4844,8 +4850,8 @@
         <v>3500</v>
       </c>
       <c r="D9">
-        <f>D8+C9</f>
-        <v>14000</v>
+        <f t="shared" si="0"/>
+        <v>10500</v>
       </c>
       <c r="E9" t="s">
         <v>87</v>
@@ -4874,8 +4880,8 @@
         <v>4000</v>
       </c>
       <c r="D10">
-        <f>D9+C10</f>
-        <v>18000</v>
+        <f t="shared" si="0"/>
+        <v>14000</v>
       </c>
       <c r="E10" t="s">
         <v>122</v>
@@ -4904,8 +4910,8 @@
         <v>4500</v>
       </c>
       <c r="D11">
-        <f>D10+C11</f>
-        <v>22500</v>
+        <f t="shared" si="0"/>
+        <v>18000</v>
       </c>
       <c r="E11" t="s">
         <v>88</v>
@@ -4934,8 +4940,8 @@
         <v>5000</v>
       </c>
       <c r="D12">
-        <f>D11+C12</f>
-        <v>27500</v>
+        <f t="shared" si="0"/>
+        <v>22500</v>
       </c>
       <c r="E12" t="s">
         <v>89</v>
@@ -4964,8 +4970,8 @@
         <v>5500</v>
       </c>
       <c r="D13">
-        <f>D12+C13</f>
-        <v>33000</v>
+        <f t="shared" si="0"/>
+        <v>27500</v>
       </c>
       <c r="E13" t="s">
         <v>90</v>
@@ -4994,8 +5000,8 @@
         <v>6000</v>
       </c>
       <c r="D14">
-        <f>D13+C14</f>
-        <v>39000</v>
+        <f t="shared" si="0"/>
+        <v>33000</v>
       </c>
       <c r="E14" t="s">
         <v>91</v>
@@ -5024,8 +5030,8 @@
         <v>6500</v>
       </c>
       <c r="D15">
-        <f>D14+C15</f>
-        <v>45500</v>
+        <f t="shared" si="0"/>
+        <v>39000</v>
       </c>
       <c r="E15" t="s">
         <v>123</v>
@@ -5054,8 +5060,8 @@
         <v>7000</v>
       </c>
       <c r="D16">
-        <f>D15+C16</f>
-        <v>52500</v>
+        <f t="shared" si="0"/>
+        <v>45500</v>
       </c>
       <c r="E16" t="s">
         <v>92</v>
@@ -5084,8 +5090,8 @@
         <v>7500</v>
       </c>
       <c r="D17">
-        <f>D16+C17</f>
-        <v>60000</v>
+        <f t="shared" si="0"/>
+        <v>52500</v>
       </c>
       <c r="E17" t="s">
         <v>93</v>
@@ -5114,8 +5120,8 @@
         <v>8000</v>
       </c>
       <c r="D18">
-        <f>D17+C18</f>
-        <v>68000</v>
+        <f t="shared" si="0"/>
+        <v>60000</v>
       </c>
       <c r="E18" t="s">
         <v>94</v>
@@ -5144,8 +5150,8 @@
         <v>8500</v>
       </c>
       <c r="D19">
-        <f>D18+C19</f>
-        <v>76500</v>
+        <f t="shared" si="0"/>
+        <v>68000</v>
       </c>
       <c r="E19" t="s">
         <v>95</v>
@@ -5174,8 +5180,8 @@
         <v>9000</v>
       </c>
       <c r="D20">
-        <f>D19+C20</f>
-        <v>85500</v>
+        <f t="shared" si="0"/>
+        <v>76500</v>
       </c>
       <c r="E20" t="s">
         <v>124</v>
@@ -5204,8 +5210,8 @@
         <v>9500</v>
       </c>
       <c r="D21">
-        <f>D20+C21</f>
-        <v>95000</v>
+        <f t="shared" si="0"/>
+        <v>85500</v>
       </c>
       <c r="E21" t="s">
         <v>96</v>
@@ -5234,8 +5240,8 @@
         <v>10000</v>
       </c>
       <c r="D22">
-        <f>D21+C22</f>
-        <v>105000</v>
+        <f t="shared" si="0"/>
+        <v>95000</v>
       </c>
       <c r="E22" t="s">
         <v>97</v>
@@ -5264,8 +5270,8 @@
         <v>10500</v>
       </c>
       <c r="D23">
-        <f>D22+C23</f>
-        <v>115500</v>
+        <f t="shared" si="0"/>
+        <v>105000</v>
       </c>
       <c r="E23" t="s">
         <v>98</v>
@@ -5294,8 +5300,8 @@
         <v>11000</v>
       </c>
       <c r="D24">
-        <f>D23+C24</f>
-        <v>126500</v>
+        <f t="shared" si="0"/>
+        <v>115500</v>
       </c>
       <c r="E24" t="s">
         <v>99</v>
@@ -5324,8 +5330,8 @@
         <v>11500</v>
       </c>
       <c r="D25">
-        <f>D24+C25</f>
-        <v>138000</v>
+        <f t="shared" si="0"/>
+        <v>126500</v>
       </c>
       <c r="E25" t="s">
         <v>100</v>
@@ -5354,8 +5360,8 @@
         <v>12000</v>
       </c>
       <c r="D26">
-        <f>D25+C26</f>
-        <v>150000</v>
+        <f t="shared" si="0"/>
+        <v>138000</v>
       </c>
       <c r="E26" t="s">
         <v>101</v>
@@ -5384,8 +5390,8 @@
         <v>12500</v>
       </c>
       <c r="D27">
-        <f>D26+C27</f>
-        <v>162500</v>
+        <f t="shared" si="0"/>
+        <v>150000</v>
       </c>
       <c r="E27" t="s">
         <v>112</v>
@@ -5414,8 +5420,8 @@
         <v>13000</v>
       </c>
       <c r="D28">
-        <f>D27+C28</f>
-        <v>175500</v>
+        <f t="shared" si="0"/>
+        <v>162500</v>
       </c>
       <c r="E28" t="s">
         <v>118</v>
@@ -5444,8 +5450,8 @@
         <v>13500</v>
       </c>
       <c r="D29">
-        <f>D28+C29</f>
-        <v>189000</v>
+        <f t="shared" si="0"/>
+        <v>175500</v>
       </c>
       <c r="E29" t="s">
         <v>109</v>
@@ -5474,8 +5480,8 @@
         <v>14000</v>
       </c>
       <c r="D30">
-        <f>D29+C30</f>
-        <v>203000</v>
+        <f t="shared" si="0"/>
+        <v>189000</v>
       </c>
       <c r="E30" t="s">
         <v>105</v>
@@ -5504,8 +5510,8 @@
         <v>14500</v>
       </c>
       <c r="D31">
-        <f>D30+C31</f>
-        <v>217500</v>
+        <f t="shared" si="0"/>
+        <v>203000</v>
       </c>
       <c r="E31" t="s">
         <v>102</v>
@@ -5534,8 +5540,8 @@
         <v>15000</v>
       </c>
       <c r="D32">
-        <f>D31+C32</f>
-        <v>232500</v>
+        <f t="shared" si="0"/>
+        <v>217500</v>
       </c>
       <c r="E32" t="s">
         <v>67</v>
@@ -5564,8 +5570,8 @@
         <v>15500</v>
       </c>
       <c r="D33">
-        <f>D32+C33</f>
-        <v>248000</v>
+        <f t="shared" si="0"/>
+        <v>232500</v>
       </c>
       <c r="E33" t="s">
         <v>103</v>
@@ -5594,8 +5600,8 @@
         <v>16000</v>
       </c>
       <c r="D34">
-        <f>D33+C34</f>
-        <v>264000</v>
+        <f t="shared" si="0"/>
+        <v>248000</v>
       </c>
       <c r="E34" t="s">
         <v>104</v>
@@ -5624,8 +5630,8 @@
         <v>16500</v>
       </c>
       <c r="D35">
-        <f>D34+C35</f>
-        <v>280500</v>
+        <f t="shared" si="0"/>
+        <v>264000</v>
       </c>
       <c r="E35" t="s">
         <v>113</v>
@@ -5654,8 +5660,8 @@
         <v>17000</v>
       </c>
       <c r="D36">
-        <f>D35+C36</f>
-        <v>297500</v>
+        <f t="shared" si="0"/>
+        <v>280500</v>
       </c>
       <c r="E36" t="s">
         <v>119</v>
@@ -5684,8 +5690,8 @@
         <v>17500</v>
       </c>
       <c r="D37">
-        <f>D36+C37</f>
-        <v>315000</v>
+        <f t="shared" si="0"/>
+        <v>297500</v>
       </c>
       <c r="E37" t="s">
         <v>66</v>
@@ -5714,8 +5720,8 @@
         <v>18000</v>
       </c>
       <c r="D38">
-        <f>D37+C38</f>
-        <v>333000</v>
+        <f t="shared" si="0"/>
+        <v>315000</v>
       </c>
       <c r="E38" t="s">
         <v>110</v>
@@ -5744,8 +5750,8 @@
         <v>18500</v>
       </c>
       <c r="D39">
-        <f>D38+C39</f>
-        <v>351500</v>
+        <f t="shared" si="0"/>
+        <v>333000</v>
       </c>
       <c r="E39" t="s">
         <v>106</v>
@@ -5774,8 +5780,8 @@
         <v>19000</v>
       </c>
       <c r="D40">
-        <f>D39+C40</f>
-        <v>370500</v>
+        <f t="shared" si="0"/>
+        <v>351500</v>
       </c>
       <c r="E40" t="s">
         <v>111</v>
@@ -5804,8 +5810,8 @@
         <v>19500</v>
       </c>
       <c r="D41">
-        <f>D40+C41</f>
-        <v>390000</v>
+        <f t="shared" si="0"/>
+        <v>370500</v>
       </c>
       <c r="E41" t="s">
         <v>107</v>
@@ -5834,8 +5840,8 @@
         <v>20000</v>
       </c>
       <c r="D42">
-        <f>D41+C42</f>
-        <v>410000</v>
+        <f t="shared" si="0"/>
+        <v>390000</v>
       </c>
       <c r="E42" t="s">
         <v>108</v>
@@ -5864,8 +5870,8 @@
         <v>20500</v>
       </c>
       <c r="D43">
-        <f>D42+C43</f>
-        <v>430500</v>
+        <f t="shared" si="0"/>
+        <v>410000</v>
       </c>
       <c r="E43" t="s">
         <v>114</v>
@@ -5894,8 +5900,8 @@
         <v>21000</v>
       </c>
       <c r="D44">
-        <f>D43+C44</f>
-        <v>451500</v>
+        <f t="shared" si="0"/>
+        <v>430500</v>
       </c>
       <c r="E44" t="s">
         <v>120</v>
@@ -5924,8 +5930,8 @@
         <v>21500</v>
       </c>
       <c r="D45">
-        <f>D44+C45</f>
-        <v>473000</v>
+        <f t="shared" si="0"/>
+        <v>451500</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>115</v>
@@ -5954,8 +5960,8 @@
         <v>22000</v>
       </c>
       <c r="D46">
-        <f>D45+C46</f>
-        <v>495000</v>
+        <f t="shared" si="0"/>
+        <v>473000</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>68</v>
@@ -5984,8 +5990,8 @@
         <v>22500</v>
       </c>
       <c r="D47">
-        <f>D46+C47</f>
-        <v>517500</v>
+        <f t="shared" si="0"/>
+        <v>495000</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>121</v>
@@ -6014,8 +6020,8 @@
         <v>23000</v>
       </c>
       <c r="D48">
-        <f>D47+C48</f>
-        <v>540500</v>
+        <f t="shared" si="0"/>
+        <v>517500</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>116</v>
@@ -6044,8 +6050,8 @@
         <v>23500</v>
       </c>
       <c r="D49">
-        <f>D48+C49</f>
-        <v>564000</v>
+        <f t="shared" si="0"/>
+        <v>540500</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>69</v>
@@ -6074,8 +6080,8 @@
         <v>24000</v>
       </c>
       <c r="D50">
-        <f>D49+C50</f>
-        <v>588000</v>
+        <f t="shared" si="0"/>
+        <v>564000</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>117</v>
@@ -6104,8 +6110,8 @@
         <v>24500</v>
       </c>
       <c r="D51">
-        <f>D50+C51</f>
-        <v>612500</v>
+        <f t="shared" si="0"/>
+        <v>588000</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>125</v>
@@ -6134,8 +6140,8 @@
         <v>25000</v>
       </c>
       <c r="D52">
-        <f>D51+C52</f>
-        <v>637500</v>
+        <f t="shared" si="0"/>
+        <v>612500</v>
       </c>
       <c r="E52" t="s">
         <v>65</v>
@@ -6170,8 +6176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6230,13 +6236,13 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F2" t="s">
         <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H2" t="s">
         <v>21</v>
@@ -6559,7 +6565,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -6701,7 +6707,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H8"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6723,16 +6729,16 @@
         <v>132</v>
       </c>
       <c r="E1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F1" t="s">
         <v>133</v>
       </c>
       <c r="G1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" t="s">
         <v>130</v>
-      </c>
-      <c r="H1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="0" windowWidth="27820" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28160" windowHeight="16060" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="constant" sheetId="2" r:id="rId1"/>
@@ -921,8 +921,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1561">
+  <cellStyleXfs count="1579">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2491,7 +2509,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1561">
+  <cellStyles count="1579">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -3272,6 +3290,15 @@
     <cellStyle name="超链接" xfId="1555" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1557" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1559" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1561" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1563" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1565" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1567" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1569" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1571" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1573" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1575" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1577" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -4052,6 +4079,15 @@
     <cellStyle name="访问过的超链接" xfId="1556" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1558" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1560" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1562" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1564" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1566" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1568" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1570" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1572" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1574" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1576" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1578" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4352,7 +4388,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection sqref="A1:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4556,7 +4592,7 @@
         <v>136</v>
       </c>
       <c r="D14">
-        <v>5000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4590,8 +4626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6177,7 +6213,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection sqref="A1:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6394,11 +6430,11 @@
         <v>10</v>
       </c>
       <c r="J6">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -6430,11 +6466,11 @@
         <v>20</v>
       </c>
       <c r="J7">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>0.89999999999999991</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -6466,11 +6502,11 @@
         <v>20</v>
       </c>
       <c r="J8">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -6538,11 +6574,11 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -6706,8 +6742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6784,13 +6820,13 @@
         <v>1000</v>
       </c>
       <c r="F3">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -6810,13 +6846,13 @@
         <v>1500</v>
       </c>
       <c r="F4">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>75</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -6836,13 +6872,13 @@
         <v>2000</v>
       </c>
       <c r="F5">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -6862,13 +6898,13 @@
         <v>3000</v>
       </c>
       <c r="F6">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>120</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6888,13 +6924,13 @@
         <v>4000</v>
       </c>
       <c r="F7">
-        <v>800</v>
+        <v>2200</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6914,13 +6950,13 @@
         <v>5000</v>
       </c>
       <c r="F8">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>180</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28160" windowHeight="16060" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28520" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="constant" sheetId="2" r:id="rId1"/>
@@ -921,8 +921,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1579">
+  <cellStyleXfs count="1591">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2509,7 +2521,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1579">
+  <cellStyles count="1591">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -3299,6 +3311,12 @@
     <cellStyle name="超链接" xfId="1573" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1575" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1577" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1579" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1581" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1583" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1585" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1587" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1589" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -4088,6 +4106,12 @@
     <cellStyle name="访问过的超链接" xfId="1574" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1576" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1578" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1580" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1582" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1584" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1586" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1588" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1590" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4592,7 +4616,7 @@
         <v>136</v>
       </c>
       <c r="D14">
-        <v>3000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4626,8 +4650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42:C52"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6173,7 +6197,7 @@
         <v>50</v>
       </c>
       <c r="C52">
-        <v>25000</v>
+        <v>-1</v>
       </c>
       <c r="D52">
         <f t="shared" si="0"/>
@@ -6213,7 +6237,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K14"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6742,8 +6766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6817,16 +6841,16 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F3">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -6843,16 +6867,16 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F4">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -6869,16 +6893,16 @@
         <v>10</v>
       </c>
       <c r="E5">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="F5">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -6895,16 +6919,16 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="F6">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6921,16 +6945,16 @@
         <v>30</v>
       </c>
       <c r="E7">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F7">
-        <v>2200</v>
+        <v>400</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>50</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6947,16 +6971,16 @@
         <v>40</v>
       </c>
       <c r="E8">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="F8">
-        <v>3000</v>
+        <v>550</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28520" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="25920" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="constant" sheetId="2" r:id="rId1"/>
@@ -223,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="159">
   <si>
     <t>name</t>
   </si>
@@ -839,6 +839,18 @@
   </si>
   <si>
     <t>isNormal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地格解锁条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;0|1;5|2;10|3;15|4;20|5;30|5;30|6;40|6;40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>farmlandlock</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -921,8 +933,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1591">
+  <cellStyleXfs count="1615">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2521,7 +2557,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1591">
+  <cellStyles count="1615">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -3317,6 +3353,18 @@
     <cellStyle name="超链接" xfId="1585" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1587" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1589" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1591" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1593" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1595" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1597" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1599" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1601" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1603" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1605" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1607" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1609" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1611" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1613" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -4112,6 +4160,18 @@
     <cellStyle name="访问过的超链接" xfId="1586" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1588" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1590" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1592" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1594" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1596" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1598" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1600" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1602" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1604" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1606" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1608" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1610" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1612" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1614" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4409,10 +4469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D15"/>
+      <selection sqref="A1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4631,6 +4691,20 @@
       </c>
       <c r="D15">
         <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -4650,7 +4724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
@@ -6236,8 +6310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6634,7 +6708,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
@@ -6670,7 +6744,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
@@ -6706,7 +6780,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
@@ -6844,13 +6918,13 @@
         <v>500</v>
       </c>
       <c r="F3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -6870,13 +6944,13 @@
         <v>750</v>
       </c>
       <c r="F4">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -6896,13 +6970,13 @@
         <v>1000</v>
       </c>
       <c r="F5">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -6922,13 +6996,13 @@
         <v>1500</v>
       </c>
       <c r="F6">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6948,13 +7022,13 @@
         <v>2000</v>
       </c>
       <c r="F7">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6974,13 +7048,13 @@
         <v>2500</v>
       </c>
       <c r="F8">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="25920" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="26040" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="constant" sheetId="2" r:id="rId1"/>
@@ -846,11 +846,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0;0|1;5|2;10|3;15|4;20|5;30|5;30|6;40|6;40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>farmlandlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;0|1;5|2;10|3;20|4;30|5;30|5;30|6;30|6;30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -933,8 +933,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1615">
+  <cellStyleXfs count="1623">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2557,7 +2565,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1615">
+  <cellStyles count="1623">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -3365,6 +3373,10 @@
     <cellStyle name="超链接" xfId="1609" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1611" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1613" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1615" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1617" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1619" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1621" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -4172,6 +4184,10 @@
     <cellStyle name="访问过的超链接" xfId="1610" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1612" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1614" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1616" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1618" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1620" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1622" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4471,8 +4487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4698,13 +4714,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C16" t="s">
         <v>156</v>
       </c>
       <c r="D16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -4724,8 +4740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42:C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6310,8 +6326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6918,7 +6934,7 @@
         <v>500</v>
       </c>
       <c r="F3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -6944,7 +6960,7 @@
         <v>750</v>
       </c>
       <c r="F4">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -6970,7 +6986,7 @@
         <v>1000</v>
       </c>
       <c r="F5">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -6996,7 +7012,7 @@
         <v>1500</v>
       </c>
       <c r="F6">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -7022,7 +7038,7 @@
         <v>2000</v>
       </c>
       <c r="F7">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -7048,7 +7064,7 @@
         <v>2500</v>
       </c>
       <c r="F8">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G8">
         <v>1</v>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="26040" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="26600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="constant" sheetId="2" r:id="rId1"/>
@@ -223,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="163">
   <si>
     <t>name</t>
   </si>
@@ -750,107 +750,123 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>lifeMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstGold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初试金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享获得精力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shareEnergy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/tree/cz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/tree/xg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/tree/xj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/tree/nm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/tree/lm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/tree/yt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香蕉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柠檬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝莓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樱桃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/fruit/share</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/fruit/repeat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/fruit/zz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/fruit/handIme</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noRotation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isNormal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地格解锁条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>farmlandlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>addExpPer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lifeMax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstGold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初试金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分享获得精力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shareEnergy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui/tree/cz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui/tree/xg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui/tree/xj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui/tree/nm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui/tree/lm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui/tree/yt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西瓜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香蕉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柠檬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝莓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>樱桃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui/fruit/share</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui/fruit/repeat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui/fruit/zz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui/fruit/handIme</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>noRotation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isNormal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地格解锁条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>farmlandlock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0;0|1;5|2;10|3;20|4;30|5;30|5;30|6;30|6;30</t>
+    <t>fertDouble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterSaveTimeRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浇水节省时间比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施肥增加产量比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;0|0;0|0;0|1;5|2;10|3;20|4;30|5;40|6;50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -933,8 +949,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1623">
+  <cellStyleXfs count="1647">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2565,7 +2605,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1623">
+  <cellStyles count="1647">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -3377,6 +3417,18 @@
     <cellStyle name="超链接" xfId="1617" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1619" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1621" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1623" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1625" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1627" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1629" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1631" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1633" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1635" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1637" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1639" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1641" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1643" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1645" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -4188,6 +4240,18 @@
     <cellStyle name="访问过的超链接" xfId="1618" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1620" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1622" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1624" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1626" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1628" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1630" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1632" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1634" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1636" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1638" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1640" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1642" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1644" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1646" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4485,7 +4549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
@@ -4686,10 +4750,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" t="s">
         <v>135</v>
-      </c>
-      <c r="C14" t="s">
-        <v>136</v>
       </c>
       <c r="D14">
         <v>5000</v>
@@ -4700,10 +4764,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D15">
         <v>2000</v>
@@ -4714,13 +4778,41 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
         <v>158</v>
+      </c>
+      <c r="C18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -4740,8 +4832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42:C51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4779,7 +4871,7 @@
         <v>70</v>
       </c>
       <c r="I1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -6327,7 +6419,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K10"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6351,13 +6443,13 @@
         <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F1" t="s">
         <v>77</v>
       </c>
       <c r="G1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -6631,7 +6723,7 @@
         <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -6703,7 +6795,7 @@
         <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -6739,7 +6831,7 @@
         <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -6775,7 +6867,7 @@
         <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -6811,7 +6903,7 @@
         <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -6882,7 +6974,7 @@
         <v>128</v>
       </c>
       <c r="F1" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="G1" t="s">
         <v>131</v>
@@ -6925,16 +7017,16 @@
         <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -6948,19 +7040,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D4">
         <v>5</v>
       </c>
       <c r="E4">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="F4">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -6974,19 +7066,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D5">
         <v>10</v>
       </c>
       <c r="E5">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="F5">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -7000,19 +7092,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D6">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="F6">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -7026,19 +7118,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D7">
         <v>30</v>
       </c>
       <c r="E7">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="F7">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -7052,19 +7144,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D8">
         <v>40</v>
       </c>
       <c r="E8">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="F8">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G8">
         <v>1</v>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="26600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="26700" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="constant" sheetId="2" r:id="rId1"/>
@@ -223,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="114">
   <si>
     <t>name</t>
   </si>
@@ -484,23 +484,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>水果大王</t>
-  </si>
-  <si>
-    <t>工长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副总经理</t>
-  </si>
-  <si>
-    <t>董事长</t>
-  </si>
-  <si>
     <t>lifeReturn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -545,183 +528,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>果园看守</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>果园小时工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>果园学徒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级种植工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级施肥工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级除草工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级采摘工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级种植工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级施肥工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级除草工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级采摘工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级种植工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级施肥工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级除草工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级采摘工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工长助理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后勤助理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小卡司机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购助理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售助理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>渠道助理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡车司机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>渠道经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后勤经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运输部长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售总监</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>渠道总监</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副工长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后勤部长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购部长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>市场助理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>市场经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>市场总监</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总经理助理</t>
-  </si>
-  <si>
-    <t>董事长秘书</t>
-  </si>
-  <si>
-    <t>董事会主席</t>
-  </si>
-  <si>
-    <t>代理经销商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经销商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总经销商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级嫁接工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级嫁接工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级嫁接工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>果业协会会长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -867,6 +673,10 @@
   </si>
   <si>
     <t>0;0|0;0|0;0|1;5|2;10|3;20|4;30|5;40|6;50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乡村果园</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -874,7 +684,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -923,14 +733,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -949,7 +751,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1647">
+  <cellStyleXfs count="1659">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2597,15 +2399,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1647">
+  <cellStyles count="1659">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -3429,6 +3242,12 @@
     <cellStyle name="超链接" xfId="1641" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1643" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1645" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1647" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1649" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1651" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1653" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1655" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1657" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -4252,6 +4071,12 @@
     <cellStyle name="访问过的超链接" xfId="1642" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1644" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1646" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1648" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1650" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1652" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1654" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1656" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1658" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4551,8 +4376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4680,7 +4505,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
         <v>32</v>
@@ -4736,10 +4561,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D13">
         <v>3000</v>
@@ -4750,10 +4575,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="D14">
         <v>5000</v>
@@ -4764,10 +4589,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="D15">
         <v>2000</v>
@@ -4778,13 +4603,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>162</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4792,10 +4617,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="C17" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="D17">
         <v>0.5</v>
@@ -4806,10 +4631,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="C18" t="s">
-        <v>161</v>
+        <v>111</v>
       </c>
       <c r="D18">
         <v>0.3</v>
@@ -4832,8 +4657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4868,10 +4693,10 @@
         <v>64</v>
       </c>
       <c r="H1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I1" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -4897,10 +4722,10 @@
         <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="I2" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4917,7 +4742,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -4946,7 +4771,7 @@
         <v>500</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -4976,7 +4801,7 @@
         <v>1500</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -5006,7 +4831,7 @@
         <v>3000</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -5036,7 +4861,7 @@
         <v>5000</v>
       </c>
       <c r="E7" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -5066,7 +4891,7 @@
         <v>7500</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -5096,7 +4921,7 @@
         <v>10500</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -5126,7 +4951,7 @@
         <v>14000</v>
       </c>
       <c r="E10" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -5156,7 +4981,7 @@
         <v>18000</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -5186,7 +5011,7 @@
         <v>22500</v>
       </c>
       <c r="E12" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -5216,7 +5041,7 @@
         <v>27500</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -5246,7 +5071,7 @@
         <v>33000</v>
       </c>
       <c r="E14" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -5276,7 +5101,7 @@
         <v>39000</v>
       </c>
       <c r="E15" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -5306,7 +5131,7 @@
         <v>45500</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -5336,7 +5161,7 @@
         <v>52500</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -5366,7 +5191,7 @@
         <v>60000</v>
       </c>
       <c r="E18" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -5396,7 +5221,7 @@
         <v>68000</v>
       </c>
       <c r="E19" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -5426,7 +5251,7 @@
         <v>76500</v>
       </c>
       <c r="E20" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -5456,7 +5281,7 @@
         <v>85500</v>
       </c>
       <c r="E21" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -5486,7 +5311,7 @@
         <v>95000</v>
       </c>
       <c r="E22" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -5516,7 +5341,7 @@
         <v>105000</v>
       </c>
       <c r="E23" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -5546,7 +5371,7 @@
         <v>115500</v>
       </c>
       <c r="E24" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -5576,7 +5401,7 @@
         <v>126500</v>
       </c>
       <c r="E25" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -5606,7 +5431,7 @@
         <v>138000</v>
       </c>
       <c r="E26" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -5636,7 +5461,7 @@
         <v>150000</v>
       </c>
       <c r="E27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -5666,7 +5491,7 @@
         <v>162500</v>
       </c>
       <c r="E28" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -5696,7 +5521,7 @@
         <v>175500</v>
       </c>
       <c r="E29" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -5726,7 +5551,7 @@
         <v>189000</v>
       </c>
       <c r="E30" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -5756,7 +5581,7 @@
         <v>203000</v>
       </c>
       <c r="E31" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -5786,7 +5611,7 @@
         <v>217500</v>
       </c>
       <c r="E32" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -5816,7 +5641,7 @@
         <v>232500</v>
       </c>
       <c r="E33" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -5846,7 +5671,7 @@
         <v>248000</v>
       </c>
       <c r="E34" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -5906,7 +5731,7 @@
         <v>280500</v>
       </c>
       <c r="E36" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -5936,7 +5761,7 @@
         <v>297500</v>
       </c>
       <c r="E37" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -5966,7 +5791,7 @@
         <v>315000</v>
       </c>
       <c r="E38" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -5996,7 +5821,7 @@
         <v>333000</v>
       </c>
       <c r="E39" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -6026,7 +5851,7 @@
         <v>351500</v>
       </c>
       <c r="E40" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -6056,7 +5881,7 @@
         <v>370500</v>
       </c>
       <c r="E41" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -6086,7 +5911,7 @@
         <v>390000</v>
       </c>
       <c r="E42" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -6116,7 +5941,7 @@
         <v>410000</v>
       </c>
       <c r="E43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -6146,7 +5971,7 @@
         <v>430500</v>
       </c>
       <c r="E44" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -6175,8 +6000,8 @@
         <f t="shared" si="0"/>
         <v>451500</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>115</v>
+      <c r="E45" t="s">
+        <v>113</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -6205,8 +6030,8 @@
         <f t="shared" si="0"/>
         <v>473000</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>68</v>
+      <c r="E46" t="s">
+        <v>113</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -6235,8 +6060,8 @@
         <f t="shared" si="0"/>
         <v>495000</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>121</v>
+      <c r="E47" t="s">
+        <v>113</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -6265,8 +6090,8 @@
         <f t="shared" si="0"/>
         <v>517500</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>116</v>
+      <c r="E48" t="s">
+        <v>113</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -6295,8 +6120,8 @@
         <f t="shared" si="0"/>
         <v>540500</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>69</v>
+      <c r="E49" t="s">
+        <v>113</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -6325,8 +6150,8 @@
         <f t="shared" si="0"/>
         <v>564000</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>117</v>
+      <c r="E50" t="s">
+        <v>113</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -6355,8 +6180,8 @@
         <f t="shared" si="0"/>
         <v>588000</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>125</v>
+      <c r="E51" t="s">
+        <v>113</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -6386,7 +6211,7 @@
         <v>612500</v>
       </c>
       <c r="E52" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -6419,7 +6244,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6440,16 +6265,16 @@
         <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E1" t="s">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="F1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G1" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -6478,13 +6303,13 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
         <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s">
         <v>21</v>
@@ -6720,10 +6545,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -6780,11 +6605,11 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -6792,10 +6617,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -6828,10 +6653,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -6864,10 +6689,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -6900,10 +6725,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -6959,7 +6784,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
@@ -6968,24 +6793,24 @@
         <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="F1" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="G1" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="H1" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -7017,7 +6842,7 @@
         <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -7040,10 +6865,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -7066,10 +6891,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -7092,10 +6917,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="D6">
         <v>20</v>
@@ -7118,10 +6943,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="D7">
         <v>30</v>
@@ -7144,10 +6969,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="D8">
         <v>40</v>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="26040" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="25920" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="constant" sheetId="2" r:id="rId1"/>
@@ -846,11 +846,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0;0|1;5|2;10|3;15|4;20|5;30|5;30|6;40|6;40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>farmlandlock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0;0|1;5|2;10|3;20|4;30|5;30|5;30|6;30|6;30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -933,16 +933,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1623">
+  <cellStyleXfs count="1615">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2565,7 +2557,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1623">
+  <cellStyles count="1615">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -3373,10 +3365,6 @@
     <cellStyle name="超链接" xfId="1609" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1611" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1613" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1615" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1617" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1619" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1621" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -4184,10 +4172,6 @@
     <cellStyle name="访问过的超链接" xfId="1610" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1612" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1614" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1616" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1618" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1620" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1622" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4487,8 +4471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4714,13 +4698,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C16" t="s">
         <v>156</v>
       </c>
       <c r="D16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -4740,8 +4724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42:C51"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6326,8 +6310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6934,7 +6918,7 @@
         <v>500</v>
       </c>
       <c r="F3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -6960,7 +6944,7 @@
         <v>750</v>
       </c>
       <c r="F4">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -6986,7 +6970,7 @@
         <v>1000</v>
       </c>
       <c r="F5">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -7012,7 +6996,7 @@
         <v>1500</v>
       </c>
       <c r="F6">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -7038,7 +7022,7 @@
         <v>2000</v>
       </c>
       <c r="F7">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -7064,7 +7048,7 @@
         <v>2500</v>
       </c>
       <c r="F8">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="G8">
         <v>1</v>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="25920" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="25940" windowHeight="16060" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="constant" sheetId="2" r:id="rId1"/>
@@ -846,11 +846,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0;0|1;5|2;10|3;15|4;20|5;30|5;30|6;40|6;40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>farmlandlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;0|0;0|0;0|1;5|2;10|3;15|4;20|5;25|6;30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -933,8 +933,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1615">
+  <cellStyleXfs count="1617">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2557,7 +2559,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1615">
+  <cellStyles count="1617">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -3365,6 +3367,7 @@
     <cellStyle name="超链接" xfId="1609" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1611" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1613" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1615" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -4172,6 +4175,7 @@
     <cellStyle name="访问过的超链接" xfId="1610" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1612" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1614" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1616" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4698,13 +4702,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C16" t="s">
         <v>156</v>
       </c>
       <c r="D16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -6310,7 +6314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -6840,8 +6844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6915,7 +6919,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F3">
         <v>200</v>
@@ -6941,7 +6945,7 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="F4">
         <v>300</v>
@@ -6967,7 +6971,7 @@
         <v>10</v>
       </c>
       <c r="E5">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="F5">
         <v>400</v>
@@ -6993,10 +6997,10 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="F6">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -7019,10 +7023,10 @@
         <v>30</v>
       </c>
       <c r="E7">
-        <v>2000</v>
+        <v>16000</v>
       </c>
       <c r="F7">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -7045,10 +7049,10 @@
         <v>40</v>
       </c>
       <c r="E8">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="F8">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="G8">
         <v>1</v>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="25940" windowHeight="16060" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="25960" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="constant" sheetId="2" r:id="rId1"/>
@@ -498,114 +498,345 @@
     <t>副总经理</t>
   </si>
   <si>
+    <t>lifeReturn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种植</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采摘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偷取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isBig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigWinRound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始精力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstEnergy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级施肥工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级采摘工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工长助理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小卡司机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购助理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售助理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠道助理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡车司机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠道经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售总监</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渠道总监</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副工长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购部长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场助理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场总监</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总经理助理</t>
+  </si>
+  <si>
+    <t>董事长秘书</t>
+  </si>
+  <si>
+    <t>代理经销商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总经销商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级嫁接工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plantcost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>growthTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>growthCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlocklv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addExpPer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lifeMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstGold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初试金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享获得精力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shareEnergy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/tree/cz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/tree/xg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/tree/xj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/tree/nm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/tree/lm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/tree/yt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香蕉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柠檬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝莓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樱桃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/fruit/share</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/fruit/repeat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/fruit/zz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/fruit/handIme</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noRotation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isNormal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地格解锁条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>farmlandlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;0|0;0|0;0|1;5|2;10|3;15|4;20|5;25|6;30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>果园看守</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级种植工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级嫁接工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级种植工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级嫁接工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级除草工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级种植工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级除草工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级施肥工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级采摘工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级除草工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级施肥工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级采摘工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>果园零工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>果园学徒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副董事长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董事会主席</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>董事长</t>
-  </si>
-  <si>
-    <t>lifeReturn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分享</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>repeat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>种植</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采摘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>偷取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>use</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isBig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bigWinRound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始精力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstEnergy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>果园看守</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>果园小时工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>果园学徒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级种植工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级施肥工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级除草工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级采摘工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级种植工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级施肥工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级除草工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级采摘工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级种植工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级施肥工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级除草工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级采摘工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工长助理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -613,34 +844,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小卡司机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购助理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售助理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>渠道助理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡车司机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>渠道经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>后勤经理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -649,208 +852,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>销售总监</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>渠道总监</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副工长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>后勤部长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购部长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>市场助理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>市场经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>市场总监</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总经理助理</t>
-  </si>
-  <si>
-    <t>董事长秘书</t>
-  </si>
-  <si>
-    <t>董事会主席</t>
-  </si>
-  <si>
-    <t>代理经销商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经销商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总经销商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级嫁接工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级嫁接工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级嫁接工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>果业协会会长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plantcost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>growthTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>growthCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unlocklv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addExpPer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lifeMax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstGold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初试金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分享获得精力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shareEnergy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui/tree/cz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui/tree/xg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui/tree/xj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui/tree/nm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui/tree/lm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui/tree/yt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西瓜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香蕉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柠檬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝莓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>樱桃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui/fruit/share</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui/fruit/repeat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui/fruit/zz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui/fruit/handIme</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>noRotation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isNormal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地格解锁条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>farmlandlock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0;0|0;0|0;0|1;5|2;10|3;15|4;20|5;25|6;30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -933,8 +935,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1617">
+  <cellStyleXfs count="1639">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2559,7 +2583,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1617">
+  <cellStyles count="1639">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -3368,6 +3392,17 @@
     <cellStyle name="超链接" xfId="1611" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1613" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1615" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1617" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1619" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1621" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1623" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1625" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1627" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1629" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1631" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1633" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1635" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1637" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -4176,6 +4211,17 @@
     <cellStyle name="访问过的超链接" xfId="1612" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1614" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1616" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1618" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1620" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1622" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1624" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1626" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1628" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1630" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1632" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1634" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1636" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1638" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4604,7 +4650,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
         <v>32</v>
@@ -4660,10 +4706,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13">
         <v>3000</v>
@@ -4674,10 +4720,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="C14" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="D14">
         <v>5000</v>
@@ -4688,10 +4734,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="C15" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D15">
         <v>2000</v>
@@ -4702,13 +4748,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="C16" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="D16" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -4728,8 +4774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4764,10 +4810,10 @@
         <v>64</v>
       </c>
       <c r="H1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I1" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -4793,10 +4839,10 @@
         <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="I2" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4813,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -4842,7 +4888,7 @@
         <v>500</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -4872,7 +4918,7 @@
         <v>1500</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>150</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -4902,7 +4948,7 @@
         <v>3000</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -4932,7 +4978,7 @@
         <v>5000</v>
       </c>
       <c r="E7" t="s">
-        <v>85</v>
+        <v>142</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -4962,7 +5008,7 @@
         <v>7500</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -4992,7 +5038,7 @@
         <v>10500</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -5022,7 +5068,7 @@
         <v>14000</v>
       </c>
       <c r="E10" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -5052,7 +5098,7 @@
         <v>18000</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -5082,7 +5128,7 @@
         <v>22500</v>
       </c>
       <c r="E12" t="s">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -5112,7 +5158,7 @@
         <v>27500</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -5142,7 +5188,7 @@
         <v>33000</v>
       </c>
       <c r="E14" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -5172,7 +5218,7 @@
         <v>39000</v>
       </c>
       <c r="E15" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -5202,7 +5248,7 @@
         <v>45500</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -5232,7 +5278,7 @@
         <v>52500</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -5262,7 +5308,7 @@
         <v>60000</v>
       </c>
       <c r="E18" t="s">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -5292,7 +5338,7 @@
         <v>68000</v>
       </c>
       <c r="E19" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -5322,7 +5368,7 @@
         <v>76500</v>
       </c>
       <c r="E20" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -5352,7 +5398,7 @@
         <v>85500</v>
       </c>
       <c r="E21" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -5382,7 +5428,7 @@
         <v>95000</v>
       </c>
       <c r="E22" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -5412,7 +5458,7 @@
         <v>105000</v>
       </c>
       <c r="E23" t="s">
-        <v>98</v>
+        <v>155</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -5442,7 +5488,7 @@
         <v>115500</v>
       </c>
       <c r="E24" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -5472,7 +5518,7 @@
         <v>126500</v>
       </c>
       <c r="E25" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -5502,7 +5548,7 @@
         <v>138000</v>
       </c>
       <c r="E26" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -5532,7 +5578,7 @@
         <v>150000</v>
       </c>
       <c r="E27" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -5562,7 +5608,7 @@
         <v>162500</v>
       </c>
       <c r="E28" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -5592,7 +5638,7 @@
         <v>175500</v>
       </c>
       <c r="E29" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -5622,7 +5668,7 @@
         <v>189000</v>
       </c>
       <c r="E30" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -5652,7 +5698,7 @@
         <v>203000</v>
       </c>
       <c r="E31" t="s">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -5712,7 +5758,7 @@
         <v>232500</v>
       </c>
       <c r="E33" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -5742,7 +5788,7 @@
         <v>248000</v>
       </c>
       <c r="E34" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -5772,7 +5818,7 @@
         <v>264000</v>
       </c>
       <c r="E35" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -5802,7 +5848,7 @@
         <v>280500</v>
       </c>
       <c r="E36" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -5862,7 +5908,7 @@
         <v>315000</v>
       </c>
       <c r="E38" t="s">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -5892,7 +5938,7 @@
         <v>333000</v>
       </c>
       <c r="E39" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -5922,7 +5968,7 @@
         <v>351500</v>
       </c>
       <c r="E40" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -5952,7 +5998,7 @@
         <v>370500</v>
       </c>
       <c r="E41" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -5982,7 +6028,7 @@
         <v>390000</v>
       </c>
       <c r="E42" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -6012,7 +6058,7 @@
         <v>410000</v>
       </c>
       <c r="E43" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -6042,7 +6088,7 @@
         <v>430500</v>
       </c>
       <c r="E44" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -6072,7 +6118,7 @@
         <v>451500</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -6132,7 +6178,7 @@
         <v>495000</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -6162,7 +6208,7 @@
         <v>517500</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -6192,7 +6238,7 @@
         <v>540500</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -6222,7 +6268,7 @@
         <v>564000</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -6252,7 +6298,7 @@
         <v>588000</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -6315,7 +6361,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection sqref="A1:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6336,16 +6382,16 @@
         <v>15</v>
       </c>
       <c r="D1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" t="s">
         <v>76</v>
       </c>
-      <c r="E1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F1" t="s">
-        <v>77</v>
-      </c>
       <c r="G1" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -6374,13 +6420,13 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="F2" t="s">
         <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="H2" t="s">
         <v>21</v>
@@ -6616,10 +6662,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -6676,11 +6722,11 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -6688,10 +6734,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -6724,10 +6770,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -6760,10 +6806,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -6796,10 +6842,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -6844,8 +6890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6855,7 +6901,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
@@ -6864,24 +6910,24 @@
         <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="E1" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="F1" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="G1" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="H1" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -6913,7 +6959,7 @@
         <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -6936,10 +6982,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -6962,10 +7008,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -6988,10 +7034,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="C6" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="D6">
         <v>20</v>
@@ -7014,16 +7060,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="C7" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="D7">
         <v>30</v>
       </c>
       <c r="E7">
-        <v>16000</v>
+        <v>1600</v>
       </c>
       <c r="F7">
         <v>600</v>
@@ -7040,10 +7086,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="C8" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="D8">
         <v>40</v>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="25960" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="26300" windowHeight="16060" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="constant" sheetId="2" r:id="rId1"/>
@@ -223,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="164">
   <si>
     <t>name</t>
   </si>
@@ -652,207 +652,227 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>growthCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlocklv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addExpPer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lifeMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstGold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初试金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享获得精力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shareEnergy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/tree/cz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/tree/xg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/tree/xj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/tree/nm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/tree/lm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/tree/yt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香蕉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柠檬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝莓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樱桃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/fruit/share</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/fruit/repeat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/fruit/zz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/fruit/handIme</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noRotation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isNormal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地格解锁条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>farmlandlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;0|0;0|0;0|1;5|2;10|3;15|4;20|5;25|6;30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>果园看守</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级种植工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级嫁接工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级种植工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级嫁接工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级除草工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级种植工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级除草工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级施肥工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级采摘工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级除草工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级施肥工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级采摘工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>果园零工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>果园学徒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副董事长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董事会主席</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董事长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后勤助理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后勤经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运输部长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后勤部长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterSaveTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstWater</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始水滴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>growthTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>growthCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unlocklv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addExpPer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lifeMax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstGold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初试金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分享获得精力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shareEnergy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui/tree/cz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui/tree/xg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui/tree/xj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui/tree/nm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui/tree/lm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui/tree/yt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西瓜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香蕉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柠檬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝莓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>樱桃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui/fruit/share</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui/fruit/repeat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui/fruit/zz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui/fruit/handIme</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>noRotation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isNormal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地格解锁条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>farmlandlock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0;0|0;0|0;0|1;5|2;10|3;15|4;20|5;25|6;30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>果园看守</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级种植工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级嫁接工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级种植工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级嫁接工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级除草工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级种植工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级除草工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级施肥工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级采摘工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级除草工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级施肥工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级采摘工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>果园零工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>果园学徒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副董事长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>董事会主席</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>董事长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后勤助理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后勤经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运输部长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后勤部长</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -935,8 +955,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1639">
+  <cellStyleXfs count="1647">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2583,7 +2611,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1639">
+  <cellStyles count="1647">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -3403,6 +3431,10 @@
     <cellStyle name="超链接" xfId="1633" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1635" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1637" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1639" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1641" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1643" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1645" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -4222,6 +4254,10 @@
     <cellStyle name="访问过的超链接" xfId="1634" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1636" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1638" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1640" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1642" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1644" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1646" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4519,10 +4555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D16"/>
+      <selection sqref="A1:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4720,10 +4756,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" t="s">
         <v>113</v>
-      </c>
-      <c r="C14" t="s">
-        <v>114</v>
       </c>
       <c r="D14">
         <v>5000</v>
@@ -4734,10 +4770,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D15">
         <v>2000</v>
@@ -4748,13 +4784,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" t="s">
         <v>135</v>
       </c>
-      <c r="C16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D16" t="s">
-        <v>136</v>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4774,8 +4824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4813,7 +4863,7 @@
         <v>69</v>
       </c>
       <c r="I1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -4859,7 +4909,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -4888,7 +4938,7 @@
         <v>500</v>
       </c>
       <c r="E4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -4918,7 +4968,7 @@
         <v>1500</v>
       </c>
       <c r="E5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -4948,7 +4998,7 @@
         <v>3000</v>
       </c>
       <c r="E6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -4978,7 +5028,7 @@
         <v>5000</v>
       </c>
       <c r="E7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -5098,7 +5148,7 @@
         <v>18000</v>
       </c>
       <c r="E11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -5128,7 +5178,7 @@
         <v>22500</v>
       </c>
       <c r="E12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -5158,7 +5208,7 @@
         <v>27500</v>
       </c>
       <c r="E13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -5188,7 +5238,7 @@
         <v>33000</v>
       </c>
       <c r="E14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -5218,7 +5268,7 @@
         <v>39000</v>
       </c>
       <c r="E15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -5248,7 +5298,7 @@
         <v>45500</v>
       </c>
       <c r="E16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -5278,7 +5328,7 @@
         <v>52500</v>
       </c>
       <c r="E17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -5308,7 +5358,7 @@
         <v>60000</v>
       </c>
       <c r="E18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -5338,7 +5388,7 @@
         <v>68000</v>
       </c>
       <c r="E19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -5368,7 +5418,7 @@
         <v>76500</v>
       </c>
       <c r="E20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -5458,7 +5508,7 @@
         <v>105000</v>
       </c>
       <c r="E23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -5698,7 +5748,7 @@
         <v>203000</v>
       </c>
       <c r="E31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -5908,7 +5958,7 @@
         <v>315000</v>
       </c>
       <c r="E38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -5938,7 +5988,7 @@
         <v>333000</v>
       </c>
       <c r="E39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -6238,7 +6288,7 @@
         <v>540500</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -6268,7 +6318,7 @@
         <v>564000</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -6298,7 +6348,7 @@
         <v>588000</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -6385,13 +6435,13 @@
         <v>75</v>
       </c>
       <c r="E1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F1" t="s">
         <v>76</v>
       </c>
       <c r="G1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -6665,7 +6715,7 @@
         <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -6737,7 +6787,7 @@
         <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -6773,7 +6823,7 @@
         <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -6809,7 +6859,7 @@
         <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -6845,7 +6895,7 @@
         <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -6888,18 +6938,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="16.83203125" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>104</v>
       </c>
@@ -6910,22 +6961,28 @@
         <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E1" t="s">
         <v>106</v>
       </c>
       <c r="F1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>163</v>
+      </c>
+      <c r="I1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>105</v>
       </c>
@@ -6950,8 +7007,11 @@
       <c r="H2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6959,7 +7019,7 @@
         <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -6974,18 +7034,24 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -7000,18 +7066,24 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -7026,18 +7098,24 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D6">
         <v>20</v>
@@ -7052,18 +7130,24 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D7">
         <v>30</v>
@@ -7078,18 +7162,24 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D8">
         <v>40</v>
@@ -7104,7 +7194,13 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>50</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="26300" windowHeight="16060" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="26800" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="constant" sheetId="2" r:id="rId1"/>
@@ -223,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="171">
   <si>
     <t>name</t>
   </si>
@@ -873,6 +873,34 @@
   </si>
   <si>
     <t>growthTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shareWater</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享获得水滴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水滴10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui/fruit/water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getResCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -955,8 +983,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1647">
+  <cellStyleXfs count="1665">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2611,7 +2657,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1647">
+  <cellStyles count="1665">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -3435,6 +3481,15 @@
     <cellStyle name="超链接" xfId="1641" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1643" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1645" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1647" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1649" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1651" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1653" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1655" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1657" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1659" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1661" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1663" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -4258,6 +4313,15 @@
     <cellStyle name="访问过的超链接" xfId="1642" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1644" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1646" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1648" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1650" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1652" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1654" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1656" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1658" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1660" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1662" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1664" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4555,10 +4619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D17"/>
+      <selection sqref="A1:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4804,6 +4868,20 @@
         <v>162</v>
       </c>
       <c r="D17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D18">
         <v>100</v>
       </c>
     </row>
@@ -6408,20 +6486,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="6" width="14.1640625" customWidth="1"/>
     <col min="7" max="7" width="10.1640625" customWidth="1"/>
-    <col min="10" max="11" width="15.1640625" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="11" max="12" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -6444,19 +6523,22 @@
         <v>132</v>
       </c>
       <c r="H1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>39</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -6479,19 +6561,22 @@
         <v>107</v>
       </c>
       <c r="H2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>26</v>
-      </c>
-      <c r="J2" t="s">
-        <v>8</v>
       </c>
       <c r="K2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6514,20 +6599,23 @@
         <v>1</v>
       </c>
       <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>2</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>5</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.2</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K14" si="0">H3*J3</f>
+      <c r="L3">
+        <f t="shared" ref="L3:L14" si="0">I3*K3</f>
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>2</v>
       </c>
@@ -6550,20 +6638,23 @@
         <v>1</v>
       </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>3</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>5</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.15</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <f t="shared" si="0"/>
         <v>0.44999999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6586,20 +6677,23 @@
         <v>1</v>
       </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>5</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>10</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.11</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <f t="shared" si="0"/>
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>4</v>
       </c>
@@ -6622,20 +6716,23 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>10</v>
       </c>
       <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6">
         <v>0.05</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>5</v>
       </c>
@@ -6658,20 +6755,23 @@
         <v>1</v>
       </c>
       <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>15</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>20</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>0.04</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>6</v>
       </c>
@@ -6694,20 +6794,23 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>20</v>
       </c>
       <c r="J8">
+        <v>20</v>
+      </c>
+      <c r="K8">
         <v>0.03</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>7</v>
       </c>
@@ -6730,20 +6833,23 @@
         <v>0</v>
       </c>
       <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>50</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
       <c r="J9">
+        <v>20</v>
+      </c>
+      <c r="K9">
         <v>0.2</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>8</v>
       </c>
@@ -6766,20 +6872,23 @@
         <v>1</v>
       </c>
       <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>100</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>0.03</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>9</v>
       </c>
@@ -6808,14 +6917,17 @@
         <v>0</v>
       </c>
       <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
         <v>0.1</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>10</v>
       </c>
@@ -6847,11 +6959,14 @@
         <v>0</v>
       </c>
       <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>11</v>
       </c>
@@ -6883,11 +6998,14 @@
         <v>0</v>
       </c>
       <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>12</v>
       </c>
@@ -6919,7 +7037,49 @@
         <v>0</v>
       </c>
       <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0.1</v>
+      </c>
+      <c r="L15">
+        <f t="shared" ref="L15" si="1">I15*K15</f>
         <v>0</v>
       </c>
     </row>
@@ -6940,8 +7100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7010,6 +7170,9 @@
       <c r="I2" t="s">
         <v>159</v>
       </c>
+      <c r="J2" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="26800" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="27120" windowHeight="16060" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="constant" sheetId="2" r:id="rId1"/>
@@ -223,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="173">
   <si>
     <t>name</t>
   </si>
@@ -901,6 +901,14 @@
   </si>
   <si>
     <t>getResCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterAddExp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -983,8 +991,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1665">
+  <cellStyleXfs count="1667">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2657,7 +2667,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1665">
+  <cellStyles count="1667">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -3490,6 +3500,7 @@
     <cellStyle name="超链接" xfId="1659" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1661" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1663" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1665" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -4322,6 +4333,7 @@
     <cellStyle name="访问过的超链接" xfId="1660" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1662" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1664" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1666" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6488,7 +6500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -7098,10 +7110,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7110,7 +7122,7 @@
     <col min="10" max="10" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>104</v>
       </c>
@@ -7141,8 +7153,11 @@
       <c r="J1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>105</v>
       </c>
@@ -7173,8 +7188,11 @@
       <c r="J2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7205,8 +7223,11 @@
       <c r="J3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7237,8 +7258,11 @@
       <c r="J4">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>3</v>
       </c>
@@ -7269,8 +7293,11 @@
       <c r="J5">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7284,7 +7311,7 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F6">
         <v>500</v>
@@ -7301,8 +7328,11 @@
       <c r="J6">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>5</v>
       </c>
@@ -7316,7 +7346,7 @@
         <v>30</v>
       </c>
       <c r="E7">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="F7">
         <v>600</v>
@@ -7333,8 +7363,11 @@
       <c r="J7">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>6</v>
       </c>
@@ -7348,7 +7381,7 @@
         <v>40</v>
       </c>
       <c r="E8">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="F8">
         <v>700</v>
@@ -7364,6 +7397,9 @@
       </c>
       <c r="J8">
         <v>0.5</v>
+      </c>
+      <c r="K8">
+        <v>350</v>
       </c>
     </row>
   </sheetData>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -223,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="177">
   <si>
     <t>name</t>
   </si>
@@ -909,6 +909,22 @@
   </si>
   <si>
     <t>waterAddExp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stealExp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stealWater</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -991,8 +1007,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1667">
+  <cellStyleXfs count="1671">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2667,7 +2687,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1667">
+  <cellStyles count="1671">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -3501,6 +3521,8 @@
     <cellStyle name="超链接" xfId="1661" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1663" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1665" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1667" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1669" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -4334,6 +4356,8 @@
     <cellStyle name="访问过的超链接" xfId="1662" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1664" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1666" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1668" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1670" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7110,10 +7134,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7122,7 +7146,7 @@
     <col min="10" max="10" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>104</v>
       </c>
@@ -7156,8 +7180,14 @@
       <c r="K1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>105</v>
       </c>
@@ -7191,8 +7221,14 @@
       <c r="K2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" t="s">
+        <v>175</v>
+      </c>
+      <c r="M2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7226,8 +7262,14 @@
       <c r="K3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3">
+        <v>50</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7261,8 +7303,14 @@
       <c r="K4">
         <v>150</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4">
+        <v>75</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>3</v>
       </c>
@@ -7296,8 +7344,14 @@
       <c r="K5">
         <v>200</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5">
+        <v>100</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7331,8 +7385,14 @@
       <c r="K6">
         <v>250</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6">
+        <v>125</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>5</v>
       </c>
@@ -7366,8 +7426,14 @@
       <c r="K7">
         <v>300</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7">
+        <v>150</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>6</v>
       </c>
@@ -7400,6 +7466,12 @@
       </c>
       <c r="K8">
         <v>350</v>
+      </c>
+      <c r="L8">
+        <v>175</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="27120" windowHeight="16060" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="27880" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="constant" sheetId="2" r:id="rId1"/>
@@ -223,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="179">
   <si>
     <t>name</t>
   </si>
@@ -925,6 +925,14 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shareEnergy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1007,8 +1015,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1671">
+  <cellStyleXfs count="1673">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2687,7 +2697,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1671">
+  <cellStyles count="1673">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -3523,6 +3533,7 @@
     <cellStyle name="超链接" xfId="1665" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1667" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1669" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1671" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -4358,6 +4369,7 @@
     <cellStyle name="访问过的超链接" xfId="1666" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1668" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1670" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1672" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4658,7 +4670,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D18"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4936,10 +4948,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4949,9 +4961,10 @@
     <col min="6" max="6" width="12.6640625" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4979,8 +4992,11 @@
       <c r="I1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -5008,8 +5024,11 @@
       <c r="I2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5037,8 +5056,11 @@
       <c r="I3">
         <v>5000</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5066,8 +5088,11 @@
       <c r="I4">
         <v>5500</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5096,8 +5121,11 @@
       <c r="I5">
         <v>6000</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5126,8 +5154,11 @@
       <c r="I6">
         <v>6500</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5156,8 +5187,11 @@
       <c r="I7">
         <v>7000</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5186,8 +5220,11 @@
       <c r="I8">
         <v>7500</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5216,8 +5253,11 @@
       <c r="I9">
         <v>8000</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5246,8 +5286,11 @@
       <c r="I10">
         <v>8500</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5276,8 +5319,11 @@
       <c r="I11">
         <v>9000</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5306,8 +5352,11 @@
       <c r="I12">
         <v>9500</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>11</v>
       </c>
@@ -5336,8 +5385,11 @@
       <c r="I13">
         <v>10000</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>12</v>
       </c>
@@ -5366,8 +5418,11 @@
       <c r="I14">
         <v>10500</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>13</v>
       </c>
@@ -5396,8 +5451,11 @@
       <c r="I15">
         <v>11000</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>14</v>
       </c>
@@ -5426,8 +5484,11 @@
       <c r="I16">
         <v>11500</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>15</v>
       </c>
@@ -5456,8 +5517,11 @@
       <c r="I17">
         <v>12000</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>16</v>
       </c>
@@ -5486,8 +5550,11 @@
       <c r="I18">
         <v>12500</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>17</v>
       </c>
@@ -5516,8 +5583,11 @@
       <c r="I19">
         <v>13000</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>18</v>
       </c>
@@ -5546,8 +5616,11 @@
       <c r="I20">
         <v>13500</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20">
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>19</v>
       </c>
@@ -5576,8 +5649,11 @@
       <c r="I21">
         <v>14000</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>20</v>
       </c>
@@ -5606,8 +5682,11 @@
       <c r="I22">
         <v>14500</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22">
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>21</v>
       </c>
@@ -5636,8 +5715,11 @@
       <c r="I23">
         <v>15000</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>22</v>
       </c>
@@ -5666,8 +5748,11 @@
       <c r="I24">
         <v>15500</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24">
+        <v>9300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>23</v>
       </c>
@@ -5696,8 +5781,11 @@
       <c r="I25">
         <v>16000</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>24</v>
       </c>
@@ -5726,8 +5814,11 @@
       <c r="I26">
         <v>16500</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26">
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>25</v>
       </c>
@@ -5756,8 +5847,11 @@
       <c r="I27">
         <v>17000</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27">
+        <v>10200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>26</v>
       </c>
@@ -5786,8 +5880,11 @@
       <c r="I28">
         <v>17500</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>27</v>
       </c>
@@ -5816,8 +5913,11 @@
       <c r="I29">
         <v>18000</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>28</v>
       </c>
@@ -5846,8 +5946,11 @@
       <c r="I30">
         <v>18500</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30">
+        <v>11100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>29</v>
       </c>
@@ -5876,8 +5979,11 @@
       <c r="I31">
         <v>19000</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31">
+        <v>11400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>30</v>
       </c>
@@ -5906,8 +6012,11 @@
       <c r="I32">
         <v>19500</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32">
+        <v>11700</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>31</v>
       </c>
@@ -5936,8 +6045,11 @@
       <c r="I33">
         <v>20000</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>32</v>
       </c>
@@ -5966,8 +6078,11 @@
       <c r="I34">
         <v>20500</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34">
+        <v>12300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35">
         <v>33</v>
       </c>
@@ -5996,8 +6111,11 @@
       <c r="I35">
         <v>21000</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35">
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36">
         <v>34</v>
       </c>
@@ -6026,8 +6144,11 @@
       <c r="I36">
         <v>21500</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37">
         <v>35</v>
       </c>
@@ -6056,8 +6177,11 @@
       <c r="I37">
         <v>22000</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38">
         <v>36</v>
       </c>
@@ -6086,8 +6210,11 @@
       <c r="I38">
         <v>22500</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39">
         <v>37</v>
       </c>
@@ -6116,8 +6243,11 @@
       <c r="I39">
         <v>23000</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="J39">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40">
         <v>38</v>
       </c>
@@ -6146,8 +6276,11 @@
       <c r="I40">
         <v>23500</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="J40">
+        <v>14100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41">
         <v>39</v>
       </c>
@@ -6176,8 +6309,11 @@
       <c r="I41">
         <v>24000</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="J41">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42">
         <v>40</v>
       </c>
@@ -6206,8 +6342,11 @@
       <c r="I42">
         <v>24500</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42">
+        <v>14700</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43">
         <v>41</v>
       </c>
@@ -6236,8 +6375,11 @@
       <c r="I43">
         <v>25000</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="J43">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44">
         <v>42</v>
       </c>
@@ -6266,8 +6408,11 @@
       <c r="I44">
         <v>25500</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="J44">
+        <v>15300</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45">
         <v>43</v>
       </c>
@@ -6296,8 +6441,11 @@
       <c r="I45">
         <v>26000</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45">
+        <v>15600</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46">
         <v>44</v>
       </c>
@@ -6326,8 +6474,11 @@
       <c r="I46">
         <v>26500</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="J46">
+        <v>15900</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47">
         <v>45</v>
       </c>
@@ -6356,8 +6507,11 @@
       <c r="I47">
         <v>27000</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="J47">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48">
         <v>46</v>
       </c>
@@ -6386,8 +6540,11 @@
       <c r="I48">
         <v>27500</v>
       </c>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="J48">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49">
         <v>47</v>
       </c>
@@ -6416,8 +6573,11 @@
       <c r="I49">
         <v>28000</v>
       </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="J49">
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50">
         <v>48</v>
       </c>
@@ -6446,8 +6606,11 @@
       <c r="I50">
         <v>28500</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="J50">
+        <v>17100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51">
         <v>49</v>
       </c>
@@ -6476,8 +6639,11 @@
       <c r="I51">
         <v>29000</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="J51">
+        <v>17400</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52">
         <v>50</v>
       </c>
@@ -6505,6 +6671,9 @@
       </c>
       <c r="I52">
         <v>29500</v>
+      </c>
+      <c r="J52">
+        <v>17700</v>
       </c>
     </row>
   </sheetData>
@@ -7136,8 +7305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
